--- a/document/website建站系统日程表.xlsx
+++ b/document/website建站系统日程表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
@@ -1580,6 +1580,185 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1589,18 +1768,6 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,9 +1783,6 @@
     <xf numFmtId="0" fontId="25" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,172 +1792,8 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1877,7 +1877,7 @@
         <xdr:cNvPr id="7172" name="Text Box 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000041C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000041C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1957,7 @@
         <xdr:cNvPr id="7173" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000051C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000051C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2037,7 @@
         <xdr:cNvPr id="7174" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000061C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000061C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2117,7 @@
         <xdr:cNvPr id="7175" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000071C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000071C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="7177" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000091C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000091C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="7178" name="Text Box 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A1C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="7179" name="Text Box 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B1C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2482,7 @@
         <xdr:cNvPr id="7180" name="Text Box 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C1C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2592,7 @@
         <xdr:cNvPr id="7181" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D1C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D1C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,14 +2656,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>125894</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>112639</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>269738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>31404</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>18149</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>52194</xdr:rowOff>
     </xdr:to>
@@ -2674,7 +2674,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8733181" y="455268"/>
+          <a:off x="8984969" y="455268"/>
           <a:ext cx="435597" cy="8853569"/>
           <a:chOff x="9436736" y="554990"/>
           <a:chExt cx="417830" cy="6683195"/>
@@ -2685,7 +2685,7 @@
           <xdr:cNvPr id="7306" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008A1C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A1C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2724,7 +2724,7 @@
           <xdr:cNvPr id="2" name="等腰三角形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2785,7 +2785,7 @@
         <xdr:cNvPr id="3" name="组合 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEA1AEA4-DA0F-4169-8F1C-B045F8B386BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA1AEA4-DA0F-4169-8F1C-B045F8B386BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2804,7 @@
           <xdr:cNvPr id="7284" name="Group 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000741C0000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000741C0000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2825,7 +2825,7 @@
             <xdr:cNvPr id="7310" name="Rectangle 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E1C0000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2859,7 +2859,7 @@
             <xdr:cNvPr id="7184" name="Text Box 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000101C0000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000101C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2936,7 +2936,7 @@
             <xdr:cNvPr id="7185" name="Text Box 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000111C0000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000111C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3019,7 +3019,7 @@
             <xdr:cNvPr id="7186" name="Text Box 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000121C0000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000121C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
           <xdr:cNvPr id="18" name="Text Box 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3186,7 +3186,7 @@
           <xdr:cNvPr id="19" name="Text Box 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3549,7 +3549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3566,7 +3566,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="14.4"/>
@@ -3653,305 +3653,305 @@
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:107" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="88" t="s">
+      <c r="E5" s="152"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="103" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="103" t="s">
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="88" t="s">
+      <c r="Q5" s="141"/>
+      <c r="R5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="108" t="s">
+      <c r="S5" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="109"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="109"/>
-      <c r="AR5" s="109"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="124"/>
-      <c r="AY5" s="124"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="124"/>
-      <c r="BB5" s="124"/>
-      <c r="BC5" s="124"/>
-      <c r="BD5" s="124"/>
-      <c r="BE5" s="124"/>
-      <c r="BF5" s="124"/>
-      <c r="BG5" s="124"/>
-      <c r="BH5" s="124"/>
-      <c r="BI5" s="124"/>
-      <c r="BJ5" s="124"/>
-      <c r="BK5" s="124"/>
-      <c r="BL5" s="124"/>
-      <c r="BM5" s="124"/>
-      <c r="BN5" s="124"/>
-      <c r="BO5" s="124"/>
-      <c r="BP5" s="124"/>
-      <c r="BQ5" s="124"/>
-      <c r="BR5" s="124"/>
-      <c r="BS5" s="124"/>
-      <c r="BT5" s="124"/>
-      <c r="BU5" s="124"/>
-      <c r="BV5" s="124"/>
-      <c r="BW5" s="124"/>
-      <c r="BX5" s="124"/>
-      <c r="BY5" s="124"/>
-      <c r="BZ5" s="124"/>
-      <c r="CA5" s="124"/>
-      <c r="CB5" s="124"/>
-      <c r="CC5" s="125"/>
-      <c r="CD5" s="110">
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="91"/>
+      <c r="BD5" s="91"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="91"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="91"/>
+      <c r="BI5" s="91"/>
+      <c r="BJ5" s="91"/>
+      <c r="BK5" s="91"/>
+      <c r="BL5" s="91"/>
+      <c r="BM5" s="91"/>
+      <c r="BN5" s="91"/>
+      <c r="BO5" s="91"/>
+      <c r="BP5" s="91"/>
+      <c r="BQ5" s="91"/>
+      <c r="BR5" s="91"/>
+      <c r="BS5" s="91"/>
+      <c r="BT5" s="91"/>
+      <c r="BU5" s="91"/>
+      <c r="BV5" s="91"/>
+      <c r="BW5" s="91"/>
+      <c r="BX5" s="91"/>
+      <c r="BY5" s="91"/>
+      <c r="BZ5" s="91"/>
+      <c r="CA5" s="91"/>
+      <c r="CB5" s="91"/>
+      <c r="CC5" s="92"/>
+      <c r="CD5" s="137">
         <v>9</v>
       </c>
-      <c r="CE5" s="111"/>
-      <c r="CF5" s="111"/>
-      <c r="CG5" s="111"/>
-      <c r="CH5" s="111"/>
-      <c r="CI5" s="111"/>
-      <c r="CJ5" s="111"/>
-      <c r="CK5" s="111"/>
-      <c r="CL5" s="111"/>
-      <c r="CM5" s="111"/>
-      <c r="CN5" s="111"/>
-      <c r="CO5" s="111"/>
-      <c r="CP5" s="111"/>
-      <c r="CQ5" s="111"/>
-      <c r="CR5" s="111"/>
-      <c r="CS5" s="111"/>
-      <c r="CT5" s="111"/>
-      <c r="CU5" s="111"/>
-      <c r="CV5" s="111"/>
-      <c r="CW5" s="111"/>
-      <c r="CX5" s="111"/>
-      <c r="CY5" s="111"/>
-      <c r="CZ5" s="111"/>
-      <c r="DA5" s="111"/>
-      <c r="DB5" s="111"/>
+      <c r="CE5" s="138"/>
+      <c r="CF5" s="138"/>
+      <c r="CG5" s="138"/>
+      <c r="CH5" s="138"/>
+      <c r="CI5" s="138"/>
+      <c r="CJ5" s="138"/>
+      <c r="CK5" s="138"/>
+      <c r="CL5" s="138"/>
+      <c r="CM5" s="138"/>
+      <c r="CN5" s="138"/>
+      <c r="CO5" s="138"/>
+      <c r="CP5" s="138"/>
+      <c r="CQ5" s="138"/>
+      <c r="CR5" s="138"/>
+      <c r="CS5" s="138"/>
+      <c r="CT5" s="138"/>
+      <c r="CU5" s="138"/>
+      <c r="CV5" s="138"/>
+      <c r="CW5" s="138"/>
+      <c r="CX5" s="138"/>
+      <c r="CY5" s="138"/>
+      <c r="CZ5" s="138"/>
+      <c r="DA5" s="138"/>
+      <c r="DB5" s="138"/>
       <c r="DC5" s="81"/>
     </row>
     <row r="6" spans="1:107" s="11" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="104" t="s">
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="104"/>
-      <c r="N6" s="91" t="s">
+      <c r="M6" s="139"/>
+      <c r="N6" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="97" t="s">
+      <c r="O6" s="149"/>
+      <c r="P6" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="97" t="s">
+      <c r="Q6" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="89"/>
-      <c r="S6" s="105">
+      <c r="R6" s="129"/>
+      <c r="S6" s="134">
         <v>3</v>
       </c>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="107"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="136"/>
       <c r="X6" s="35"/>
       <c r="Y6" s="35"/>
-      <c r="Z6" s="105">
+      <c r="Z6" s="134">
         <v>10</v>
       </c>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="107"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="136"/>
       <c r="AE6" s="35"/>
       <c r="AF6" s="35"/>
-      <c r="AG6" s="105">
+      <c r="AG6" s="134">
         <v>17</v>
       </c>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="107"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="136"/>
       <c r="AL6" s="35"/>
       <c r="AM6" s="35"/>
-      <c r="AN6" s="105">
+      <c r="AN6" s="134">
         <v>43017</v>
       </c>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="107"/>
+      <c r="AO6" s="135"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="136"/>
       <c r="AS6" s="35"/>
       <c r="AT6" s="35"/>
-      <c r="AU6" s="105">
+      <c r="AU6" s="134">
         <f>AN6+7</f>
         <v>43024</v>
       </c>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="107"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="136"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="35"/>
-      <c r="BB6" s="105">
+      <c r="BB6" s="134">
         <f t="shared" ref="BB6" si="0">AU6+7</f>
         <v>43031</v>
       </c>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="107"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135"/>
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="136"/>
       <c r="BG6" s="35"/>
       <c r="BH6" s="35"/>
-      <c r="BI6" s="105">
+      <c r="BI6" s="134">
         <f>BB6+7</f>
         <v>43038</v>
       </c>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="107"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="136"/>
       <c r="BN6" s="35"/>
       <c r="BO6" s="35"/>
-      <c r="BP6" s="105">
+      <c r="BP6" s="134">
         <f t="shared" ref="BP6" si="1">BI6+7</f>
         <v>43045</v>
       </c>
-      <c r="BQ6" s="106"/>
-      <c r="BR6" s="106"/>
-      <c r="BS6" s="106"/>
-      <c r="BT6" s="107"/>
+      <c r="BQ6" s="135"/>
+      <c r="BR6" s="135"/>
+      <c r="BS6" s="135"/>
+      <c r="BT6" s="136"/>
       <c r="BU6" s="35"/>
       <c r="BV6" s="35"/>
-      <c r="BW6" s="105">
+      <c r="BW6" s="134">
         <f t="shared" ref="BW6" si="2">BP6+7</f>
         <v>43052</v>
       </c>
-      <c r="BX6" s="106"/>
-      <c r="BY6" s="106"/>
-      <c r="BZ6" s="106"/>
-      <c r="CA6" s="107"/>
+      <c r="BX6" s="135"/>
+      <c r="BY6" s="135"/>
+      <c r="BZ6" s="135"/>
+      <c r="CA6" s="136"/>
       <c r="CB6" s="35"/>
       <c r="CC6" s="35"/>
-      <c r="CD6" s="105">
+      <c r="CD6" s="134">
         <f t="shared" ref="CD6" si="3">BW6+7</f>
         <v>43059</v>
       </c>
-      <c r="CE6" s="106"/>
-      <c r="CF6" s="106"/>
-      <c r="CG6" s="106"/>
-      <c r="CH6" s="107"/>
+      <c r="CE6" s="135"/>
+      <c r="CF6" s="135"/>
+      <c r="CG6" s="135"/>
+      <c r="CH6" s="136"/>
       <c r="CI6" s="35"/>
       <c r="CJ6" s="35"/>
-      <c r="CK6" s="105">
+      <c r="CK6" s="134">
         <f t="shared" ref="CK6" si="4">CD6+7</f>
         <v>43066</v>
       </c>
-      <c r="CL6" s="106"/>
-      <c r="CM6" s="106"/>
-      <c r="CN6" s="106"/>
-      <c r="CO6" s="107"/>
+      <c r="CL6" s="135"/>
+      <c r="CM6" s="135"/>
+      <c r="CN6" s="135"/>
+      <c r="CO6" s="136"/>
       <c r="CP6" s="35"/>
       <c r="CQ6" s="35"/>
-      <c r="CR6" s="105">
+      <c r="CR6" s="134">
         <f t="shared" ref="CR6" si="5">CK6+7</f>
         <v>43073</v>
       </c>
-      <c r="CS6" s="106"/>
-      <c r="CT6" s="106"/>
-      <c r="CU6" s="106"/>
-      <c r="CV6" s="107"/>
+      <c r="CS6" s="135"/>
+      <c r="CT6" s="135"/>
+      <c r="CU6" s="135"/>
+      <c r="CV6" s="136"/>
       <c r="CW6" s="35"/>
       <c r="CX6" s="35"/>
-      <c r="CY6" s="105">
+      <c r="CY6" s="134">
         <f t="shared" ref="CY6" si="6">CR6+7</f>
         <v>43080</v>
       </c>
-      <c r="CZ6" s="106"/>
-      <c r="DA6" s="106"/>
-      <c r="DB6" s="106"/>
+      <c r="CZ6" s="135"/>
+      <c r="DA6" s="135"/>
+      <c r="DB6" s="135"/>
       <c r="DC6" s="80"/>
     </row>
     <row r="7" spans="1:107" s="11" customFormat="1" ht="19.2">
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3964,9 +3964,9 @@
       <c r="O7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="90"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="130"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -4284,13 +4284,13 @@
       <c r="D10" s="32"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="115">
+      <c r="G10" s="125">
         <v>1</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="120" t="s">
+      <c r="I10" s="131" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="62">
@@ -4329,13 +4329,13 @@
       <c r="AK10" s="56"/>
       <c r="AL10" s="65"/>
       <c r="AM10" s="65"/>
-      <c r="AN10" s="126" t="s">
+      <c r="AN10" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AO10" s="126"/>
-      <c r="AP10" s="126"/>
-      <c r="AQ10" s="127"/>
-      <c r="AR10" s="127"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
       <c r="AS10" s="65"/>
       <c r="AT10" s="65"/>
       <c r="AU10" s="55"/>
@@ -4344,61 +4344,61 @@
       <c r="AX10" s="55"/>
       <c r="AY10" s="55"/>
       <c r="AZ10" s="65"/>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="126"/>
-      <c r="BC10" s="126"/>
-      <c r="BD10" s="126"/>
-      <c r="BE10" s="127"/>
-      <c r="BF10" s="127"/>
-      <c r="BG10" s="128"/>
-      <c r="BH10" s="128"/>
-      <c r="BI10" s="141"/>
-      <c r="BJ10" s="141"/>
-      <c r="BK10" s="141"/>
-      <c r="BL10" s="141"/>
-      <c r="BM10" s="141"/>
-      <c r="BN10" s="128"/>
-      <c r="BO10" s="128"/>
-      <c r="BP10" s="127"/>
-      <c r="BQ10" s="127"/>
-      <c r="BR10" s="127"/>
-      <c r="BS10" s="127"/>
-      <c r="BT10" s="141"/>
-      <c r="BU10" s="128"/>
-      <c r="BV10" s="128"/>
-      <c r="BW10" s="127"/>
-      <c r="BX10" s="127"/>
-      <c r="BY10" s="127"/>
-      <c r="BZ10" s="127"/>
-      <c r="CA10" s="127"/>
-      <c r="CB10" s="128"/>
-      <c r="CC10" s="128"/>
-      <c r="CD10" s="127"/>
-      <c r="CE10" s="127"/>
-      <c r="CF10" s="127"/>
-      <c r="CG10" s="127"/>
-      <c r="CH10" s="127"/>
-      <c r="CI10" s="128"/>
-      <c r="CJ10" s="128"/>
-      <c r="CK10" s="127"/>
-      <c r="CL10" s="127"/>
-      <c r="CM10" s="127"/>
-      <c r="CN10" s="127"/>
-      <c r="CO10" s="127"/>
-      <c r="CP10" s="128"/>
-      <c r="CQ10" s="128"/>
-      <c r="CR10" s="127"/>
-      <c r="CS10" s="127"/>
-      <c r="CT10" s="127"/>
-      <c r="CU10" s="127"/>
-      <c r="CV10" s="127"/>
-      <c r="CW10" s="128"/>
-      <c r="CX10" s="128"/>
-      <c r="CY10" s="127"/>
-      <c r="CZ10" s="127"/>
-      <c r="DA10" s="127"/>
-      <c r="DB10" s="127"/>
-      <c r="DC10" s="142"/>
+      <c r="BA10" s="95"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="95"/>
+      <c r="BI10" s="108"/>
+      <c r="BJ10" s="108"/>
+      <c r="BK10" s="108"/>
+      <c r="BL10" s="108"/>
+      <c r="BM10" s="108"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="95"/>
+      <c r="BP10" s="94"/>
+      <c r="BQ10" s="94"/>
+      <c r="BR10" s="94"/>
+      <c r="BS10" s="94"/>
+      <c r="BT10" s="108"/>
+      <c r="BU10" s="95"/>
+      <c r="BV10" s="95"/>
+      <c r="BW10" s="94"/>
+      <c r="BX10" s="94"/>
+      <c r="BY10" s="94"/>
+      <c r="BZ10" s="94"/>
+      <c r="CA10" s="94"/>
+      <c r="CB10" s="95"/>
+      <c r="CC10" s="95"/>
+      <c r="CD10" s="94"/>
+      <c r="CE10" s="94"/>
+      <c r="CF10" s="94"/>
+      <c r="CG10" s="94"/>
+      <c r="CH10" s="94"/>
+      <c r="CI10" s="95"/>
+      <c r="CJ10" s="95"/>
+      <c r="CK10" s="94"/>
+      <c r="CL10" s="94"/>
+      <c r="CM10" s="94"/>
+      <c r="CN10" s="94"/>
+      <c r="CO10" s="94"/>
+      <c r="CP10" s="95"/>
+      <c r="CQ10" s="95"/>
+      <c r="CR10" s="94"/>
+      <c r="CS10" s="94"/>
+      <c r="CT10" s="94"/>
+      <c r="CU10" s="94"/>
+      <c r="CV10" s="94"/>
+      <c r="CW10" s="95"/>
+      <c r="CX10" s="95"/>
+      <c r="CY10" s="94"/>
+      <c r="CZ10" s="94"/>
+      <c r="DA10" s="94"/>
+      <c r="DB10" s="94"/>
+      <c r="DC10" s="109"/>
     </row>
     <row r="11" spans="1:107">
       <c r="B11" s="30"/>
@@ -4406,9 +4406,9 @@
       <c r="D11" s="32"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="121"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="66">
         <v>2</v>
       </c>
@@ -4445,13 +4445,13 @@
       <c r="AK11" s="58"/>
       <c r="AL11" s="69"/>
       <c r="AM11" s="69"/>
-      <c r="AN11" s="129"/>
-      <c r="AO11" s="129" t="s">
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="AP11" s="129"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="130"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
       <c r="AS11" s="69"/>
       <c r="AT11" s="69"/>
       <c r="AU11" s="57"/>
@@ -4460,61 +4460,61 @@
       <c r="AX11" s="57"/>
       <c r="AY11" s="57"/>
       <c r="AZ11" s="69"/>
-      <c r="BA11" s="131"/>
-      <c r="BB11" s="129"/>
-      <c r="BC11" s="129"/>
-      <c r="BD11" s="129"/>
-      <c r="BE11" s="130"/>
-      <c r="BF11" s="130"/>
-      <c r="BG11" s="131"/>
-      <c r="BH11" s="131"/>
-      <c r="BI11" s="143"/>
-      <c r="BJ11" s="143"/>
-      <c r="BK11" s="143"/>
-      <c r="BL11" s="143"/>
-      <c r="BM11" s="143"/>
-      <c r="BN11" s="131"/>
-      <c r="BO11" s="131"/>
-      <c r="BP11" s="130"/>
-      <c r="BQ11" s="130"/>
-      <c r="BR11" s="130"/>
-      <c r="BS11" s="130"/>
-      <c r="BT11" s="143"/>
-      <c r="BU11" s="131"/>
-      <c r="BV11" s="131"/>
-      <c r="BW11" s="130"/>
-      <c r="BX11" s="130"/>
-      <c r="BY11" s="130"/>
-      <c r="BZ11" s="130"/>
-      <c r="CA11" s="130"/>
-      <c r="CB11" s="131"/>
-      <c r="CC11" s="131"/>
-      <c r="CD11" s="130"/>
-      <c r="CE11" s="130"/>
-      <c r="CF11" s="130"/>
-      <c r="CG11" s="130"/>
-      <c r="CH11" s="130"/>
-      <c r="CI11" s="131"/>
-      <c r="CJ11" s="131"/>
-      <c r="CK11" s="130"/>
-      <c r="CL11" s="130"/>
-      <c r="CM11" s="130"/>
-      <c r="CN11" s="130"/>
-      <c r="CO11" s="130"/>
-      <c r="CP11" s="131"/>
-      <c r="CQ11" s="131"/>
-      <c r="CR11" s="130"/>
-      <c r="CS11" s="130"/>
-      <c r="CT11" s="130"/>
-      <c r="CU11" s="130"/>
-      <c r="CV11" s="130"/>
-      <c r="CW11" s="131"/>
-      <c r="CX11" s="131"/>
-      <c r="CY11" s="130"/>
-      <c r="CZ11" s="130"/>
-      <c r="DA11" s="130"/>
-      <c r="DB11" s="130"/>
-      <c r="DC11" s="144"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="96"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="97"/>
+      <c r="BG11" s="98"/>
+      <c r="BH11" s="98"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="98"/>
+      <c r="BO11" s="98"/>
+      <c r="BP11" s="97"/>
+      <c r="BQ11" s="97"/>
+      <c r="BR11" s="97"/>
+      <c r="BS11" s="97"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="98"/>
+      <c r="BV11" s="98"/>
+      <c r="BW11" s="97"/>
+      <c r="BX11" s="97"/>
+      <c r="BY11" s="97"/>
+      <c r="BZ11" s="97"/>
+      <c r="CA11" s="97"/>
+      <c r="CB11" s="98"/>
+      <c r="CC11" s="98"/>
+      <c r="CD11" s="97"/>
+      <c r="CE11" s="97"/>
+      <c r="CF11" s="97"/>
+      <c r="CG11" s="97"/>
+      <c r="CH11" s="97"/>
+      <c r="CI11" s="98"/>
+      <c r="CJ11" s="98"/>
+      <c r="CK11" s="97"/>
+      <c r="CL11" s="97"/>
+      <c r="CM11" s="97"/>
+      <c r="CN11" s="97"/>
+      <c r="CO11" s="97"/>
+      <c r="CP11" s="98"/>
+      <c r="CQ11" s="98"/>
+      <c r="CR11" s="97"/>
+      <c r="CS11" s="97"/>
+      <c r="CT11" s="97"/>
+      <c r="CU11" s="97"/>
+      <c r="CV11" s="97"/>
+      <c r="CW11" s="98"/>
+      <c r="CX11" s="98"/>
+      <c r="CY11" s="97"/>
+      <c r="CZ11" s="97"/>
+      <c r="DA11" s="97"/>
+      <c r="DB11" s="97"/>
+      <c r="DC11" s="111"/>
     </row>
     <row r="12" spans="1:107">
       <c r="B12" s="30"/>
@@ -4522,9 +4522,9 @@
       <c r="D12" s="32"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="133"/>
       <c r="J12" s="71">
         <v>3</v>
       </c>
@@ -4561,76 +4561,76 @@
       <c r="AK12" s="60"/>
       <c r="AL12" s="75"/>
       <c r="AM12" s="75"/>
-      <c r="AN12" s="132"/>
-      <c r="AO12" s="132"/>
-      <c r="AP12" s="132" t="s">
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AQ12" s="133"/>
-      <c r="AR12" s="133"/>
+      <c r="AQ12" s="100"/>
+      <c r="AR12" s="100"/>
       <c r="AS12" s="75"/>
       <c r="AT12" s="75"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AW12" s="86"/>
+      <c r="AX12" s="86"/>
+      <c r="AY12" s="86"/>
       <c r="AZ12" s="75"/>
-      <c r="BA12" s="134"/>
-      <c r="BB12" s="132"/>
-      <c r="BC12" s="132"/>
-      <c r="BD12" s="132"/>
-      <c r="BE12" s="133"/>
-      <c r="BF12" s="133"/>
-      <c r="BG12" s="134"/>
-      <c r="BH12" s="134"/>
-      <c r="BI12" s="145"/>
-      <c r="BJ12" s="145"/>
-      <c r="BK12" s="145"/>
-      <c r="BL12" s="145"/>
-      <c r="BM12" s="145"/>
-      <c r="BN12" s="134"/>
-      <c r="BO12" s="134"/>
-      <c r="BP12" s="133"/>
-      <c r="BQ12" s="133"/>
-      <c r="BR12" s="133"/>
-      <c r="BS12" s="133"/>
-      <c r="BT12" s="145"/>
-      <c r="BU12" s="134"/>
-      <c r="BV12" s="134"/>
-      <c r="BW12" s="133"/>
-      <c r="BX12" s="133"/>
-      <c r="BY12" s="133"/>
-      <c r="BZ12" s="133"/>
-      <c r="CA12" s="133"/>
-      <c r="CB12" s="134"/>
-      <c r="CC12" s="134"/>
-      <c r="CD12" s="133"/>
-      <c r="CE12" s="133"/>
-      <c r="CF12" s="133"/>
-      <c r="CG12" s="133"/>
-      <c r="CH12" s="133"/>
-      <c r="CI12" s="134"/>
-      <c r="CJ12" s="134"/>
-      <c r="CK12" s="133"/>
-      <c r="CL12" s="133"/>
-      <c r="CM12" s="133"/>
-      <c r="CN12" s="133"/>
-      <c r="CO12" s="133"/>
-      <c r="CP12" s="134"/>
-      <c r="CQ12" s="134"/>
-      <c r="CR12" s="133"/>
-      <c r="CS12" s="133"/>
-      <c r="CT12" s="133"/>
-      <c r="CU12" s="133"/>
-      <c r="CV12" s="133"/>
-      <c r="CW12" s="134"/>
-      <c r="CX12" s="134"/>
-      <c r="CY12" s="133"/>
-      <c r="CZ12" s="133"/>
-      <c r="DA12" s="133"/>
-      <c r="DB12" s="133"/>
-      <c r="DC12" s="146"/>
+      <c r="BA12" s="101"/>
+      <c r="BB12" s="99"/>
+      <c r="BC12" s="99"/>
+      <c r="BD12" s="99"/>
+      <c r="BE12" s="100"/>
+      <c r="BF12" s="100"/>
+      <c r="BG12" s="101"/>
+      <c r="BH12" s="101"/>
+      <c r="BI12" s="112"/>
+      <c r="BJ12" s="112"/>
+      <c r="BK12" s="112"/>
+      <c r="BL12" s="112"/>
+      <c r="BM12" s="112"/>
+      <c r="BN12" s="101"/>
+      <c r="BO12" s="101"/>
+      <c r="BP12" s="100"/>
+      <c r="BQ12" s="100"/>
+      <c r="BR12" s="100"/>
+      <c r="BS12" s="100"/>
+      <c r="BT12" s="112"/>
+      <c r="BU12" s="101"/>
+      <c r="BV12" s="101"/>
+      <c r="BW12" s="100"/>
+      <c r="BX12" s="100"/>
+      <c r="BY12" s="100"/>
+      <c r="BZ12" s="100"/>
+      <c r="CA12" s="100"/>
+      <c r="CB12" s="101"/>
+      <c r="CC12" s="101"/>
+      <c r="CD12" s="100"/>
+      <c r="CE12" s="100"/>
+      <c r="CF12" s="100"/>
+      <c r="CG12" s="100"/>
+      <c r="CH12" s="100"/>
+      <c r="CI12" s="101"/>
+      <c r="CJ12" s="101"/>
+      <c r="CK12" s="100"/>
+      <c r="CL12" s="100"/>
+      <c r="CM12" s="100"/>
+      <c r="CN12" s="100"/>
+      <c r="CO12" s="100"/>
+      <c r="CP12" s="101"/>
+      <c r="CQ12" s="101"/>
+      <c r="CR12" s="100"/>
+      <c r="CS12" s="100"/>
+      <c r="CT12" s="100"/>
+      <c r="CU12" s="100"/>
+      <c r="CV12" s="100"/>
+      <c r="CW12" s="101"/>
+      <c r="CX12" s="101"/>
+      <c r="CY12" s="100"/>
+      <c r="CZ12" s="100"/>
+      <c r="DA12" s="100"/>
+      <c r="DB12" s="100"/>
+      <c r="DC12" s="113"/>
     </row>
     <row r="13" spans="1:107">
       <c r="B13" s="30"/>
@@ -4638,13 +4638,13 @@
       <c r="D13" s="32"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="115">
+      <c r="G13" s="125">
         <v>2</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="125" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="62">
@@ -4683,76 +4683,76 @@
       <c r="AK13" s="56"/>
       <c r="AL13" s="65"/>
       <c r="AM13" s="65"/>
-      <c r="AN13" s="135"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="135" t="s">
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="AR13" s="135"/>
+      <c r="AR13" s="102"/>
       <c r="AS13" s="65"/>
       <c r="AT13" s="65"/>
       <c r="AU13" s="83"/>
       <c r="AV13" s="83"/>
       <c r="AW13" s="83"/>
-      <c r="AX13" s="112"/>
-      <c r="AY13" s="112"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
       <c r="AZ13" s="65"/>
-      <c r="BA13" s="128"/>
-      <c r="BB13" s="135"/>
-      <c r="BC13" s="135"/>
-      <c r="BD13" s="135"/>
-      <c r="BE13" s="135"/>
-      <c r="BF13" s="135"/>
-      <c r="BG13" s="136"/>
-      <c r="BH13" s="128"/>
-      <c r="BI13" s="141"/>
-      <c r="BJ13" s="141"/>
-      <c r="BK13" s="141"/>
-      <c r="BL13" s="141"/>
-      <c r="BM13" s="141"/>
-      <c r="BN13" s="128"/>
-      <c r="BO13" s="128"/>
-      <c r="BP13" s="126"/>
-      <c r="BQ13" s="126"/>
-      <c r="BR13" s="126"/>
-      <c r="BS13" s="126"/>
-      <c r="BT13" s="135"/>
-      <c r="BU13" s="128"/>
-      <c r="BV13" s="128"/>
-      <c r="BW13" s="126"/>
-      <c r="BX13" s="126"/>
-      <c r="BY13" s="126"/>
-      <c r="BZ13" s="126"/>
-      <c r="CA13" s="127"/>
-      <c r="CB13" s="128"/>
-      <c r="CC13" s="128"/>
-      <c r="CD13" s="127"/>
-      <c r="CE13" s="127"/>
-      <c r="CF13" s="127"/>
-      <c r="CG13" s="127"/>
-      <c r="CH13" s="127"/>
-      <c r="CI13" s="128"/>
-      <c r="CJ13" s="128"/>
-      <c r="CK13" s="127"/>
-      <c r="CL13" s="127"/>
-      <c r="CM13" s="127"/>
-      <c r="CN13" s="127"/>
-      <c r="CO13" s="127"/>
-      <c r="CP13" s="128"/>
-      <c r="CQ13" s="128"/>
-      <c r="CR13" s="127"/>
-      <c r="CS13" s="127"/>
-      <c r="CT13" s="127"/>
-      <c r="CU13" s="127"/>
-      <c r="CV13" s="127"/>
-      <c r="CW13" s="128"/>
-      <c r="CX13" s="128"/>
-      <c r="CY13" s="127"/>
-      <c r="CZ13" s="127"/>
-      <c r="DA13" s="127"/>
-      <c r="DB13" s="127"/>
-      <c r="DC13" s="147"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="102"/>
+      <c r="BC13" s="102"/>
+      <c r="BD13" s="102"/>
+      <c r="BE13" s="102"/>
+      <c r="BF13" s="102"/>
+      <c r="BG13" s="103"/>
+      <c r="BH13" s="95"/>
+      <c r="BI13" s="108"/>
+      <c r="BJ13" s="108"/>
+      <c r="BK13" s="108"/>
+      <c r="BL13" s="108"/>
+      <c r="BM13" s="108"/>
+      <c r="BN13" s="95"/>
+      <c r="BO13" s="95"/>
+      <c r="BP13" s="93"/>
+      <c r="BQ13" s="93"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="102"/>
+      <c r="BU13" s="95"/>
+      <c r="BV13" s="95"/>
+      <c r="BW13" s="93"/>
+      <c r="BX13" s="93"/>
+      <c r="BY13" s="93"/>
+      <c r="BZ13" s="93"/>
+      <c r="CA13" s="94"/>
+      <c r="CB13" s="95"/>
+      <c r="CC13" s="95"/>
+      <c r="CD13" s="94"/>
+      <c r="CE13" s="94"/>
+      <c r="CF13" s="94"/>
+      <c r="CG13" s="94"/>
+      <c r="CH13" s="94"/>
+      <c r="CI13" s="95"/>
+      <c r="CJ13" s="95"/>
+      <c r="CK13" s="94"/>
+      <c r="CL13" s="94"/>
+      <c r="CM13" s="94"/>
+      <c r="CN13" s="94"/>
+      <c r="CO13" s="94"/>
+      <c r="CP13" s="95"/>
+      <c r="CQ13" s="95"/>
+      <c r="CR13" s="94"/>
+      <c r="CS13" s="94"/>
+      <c r="CT13" s="94"/>
+      <c r="CU13" s="94"/>
+      <c r="CV13" s="94"/>
+      <c r="CW13" s="95"/>
+      <c r="CX13" s="95"/>
+      <c r="CY13" s="94"/>
+      <c r="CZ13" s="94"/>
+      <c r="DA13" s="94"/>
+      <c r="DB13" s="94"/>
+      <c r="DC13" s="114"/>
     </row>
     <row r="14" spans="1:107">
       <c r="B14" s="30"/>
@@ -4760,9 +4760,9 @@
       <c r="D14" s="32"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="66">
         <v>2</v>
       </c>
@@ -4799,11 +4799,11 @@
       <c r="AK14" s="58"/>
       <c r="AL14" s="69"/>
       <c r="AM14" s="69"/>
-      <c r="AN14" s="137"/>
-      <c r="AO14" s="137"/>
-      <c r="AP14" s="137"/>
-      <c r="AQ14" s="137"/>
-      <c r="AR14" s="137" t="s">
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104" t="s">
         <v>50</v>
       </c>
       <c r="AS14" s="69"/>
@@ -4814,61 +4814,61 @@
       <c r="AX14" s="58"/>
       <c r="AY14" s="57"/>
       <c r="AZ14" s="69"/>
-      <c r="BA14" s="131"/>
-      <c r="BB14" s="137"/>
-      <c r="BC14" s="137"/>
-      <c r="BD14" s="137"/>
-      <c r="BE14" s="137"/>
-      <c r="BF14" s="137"/>
-      <c r="BG14" s="138"/>
-      <c r="BH14" s="131"/>
-      <c r="BI14" s="143"/>
-      <c r="BJ14" s="143"/>
-      <c r="BK14" s="143"/>
-      <c r="BL14" s="143"/>
-      <c r="BM14" s="143"/>
-      <c r="BN14" s="131"/>
-      <c r="BO14" s="131"/>
-      <c r="BP14" s="129"/>
-      <c r="BQ14" s="129"/>
-      <c r="BR14" s="129"/>
-      <c r="BS14" s="129"/>
-      <c r="BT14" s="137"/>
-      <c r="BU14" s="131"/>
-      <c r="BV14" s="131"/>
-      <c r="BW14" s="129"/>
-      <c r="BX14" s="129"/>
-      <c r="BY14" s="129"/>
-      <c r="BZ14" s="129"/>
-      <c r="CA14" s="130"/>
-      <c r="CB14" s="131"/>
-      <c r="CC14" s="131"/>
-      <c r="CD14" s="130"/>
-      <c r="CE14" s="130"/>
-      <c r="CF14" s="130"/>
-      <c r="CG14" s="130"/>
-      <c r="CH14" s="130"/>
-      <c r="CI14" s="131"/>
-      <c r="CJ14" s="131"/>
-      <c r="CK14" s="130"/>
-      <c r="CL14" s="130"/>
-      <c r="CM14" s="130"/>
-      <c r="CN14" s="130"/>
-      <c r="CO14" s="130"/>
-      <c r="CP14" s="131"/>
-      <c r="CQ14" s="131"/>
-      <c r="CR14" s="130"/>
-      <c r="CS14" s="130"/>
-      <c r="CT14" s="130"/>
-      <c r="CU14" s="130"/>
-      <c r="CV14" s="130"/>
-      <c r="CW14" s="131"/>
-      <c r="CX14" s="131"/>
-      <c r="CY14" s="130"/>
-      <c r="CZ14" s="130"/>
-      <c r="DA14" s="130"/>
-      <c r="DB14" s="130"/>
-      <c r="DC14" s="144"/>
+      <c r="BA14" s="98"/>
+      <c r="BB14" s="104"/>
+      <c r="BC14" s="104"/>
+      <c r="BD14" s="104"/>
+      <c r="BE14" s="104"/>
+      <c r="BF14" s="104"/>
+      <c r="BG14" s="105"/>
+      <c r="BH14" s="98"/>
+      <c r="BI14" s="110"/>
+      <c r="BJ14" s="110"/>
+      <c r="BK14" s="110"/>
+      <c r="BL14" s="110"/>
+      <c r="BM14" s="110"/>
+      <c r="BN14" s="98"/>
+      <c r="BO14" s="98"/>
+      <c r="BP14" s="96"/>
+      <c r="BQ14" s="96"/>
+      <c r="BR14" s="96"/>
+      <c r="BS14" s="96"/>
+      <c r="BT14" s="104"/>
+      <c r="BU14" s="98"/>
+      <c r="BV14" s="98"/>
+      <c r="BW14" s="96"/>
+      <c r="BX14" s="96"/>
+      <c r="BY14" s="96"/>
+      <c r="BZ14" s="96"/>
+      <c r="CA14" s="97"/>
+      <c r="CB14" s="98"/>
+      <c r="CC14" s="98"/>
+      <c r="CD14" s="97"/>
+      <c r="CE14" s="97"/>
+      <c r="CF14" s="97"/>
+      <c r="CG14" s="97"/>
+      <c r="CH14" s="97"/>
+      <c r="CI14" s="98"/>
+      <c r="CJ14" s="98"/>
+      <c r="CK14" s="97"/>
+      <c r="CL14" s="97"/>
+      <c r="CM14" s="97"/>
+      <c r="CN14" s="97"/>
+      <c r="CO14" s="97"/>
+      <c r="CP14" s="98"/>
+      <c r="CQ14" s="98"/>
+      <c r="CR14" s="97"/>
+      <c r="CS14" s="97"/>
+      <c r="CT14" s="97"/>
+      <c r="CU14" s="97"/>
+      <c r="CV14" s="97"/>
+      <c r="CW14" s="98"/>
+      <c r="CX14" s="98"/>
+      <c r="CY14" s="97"/>
+      <c r="CZ14" s="97"/>
+      <c r="DA14" s="97"/>
+      <c r="DB14" s="97"/>
+      <c r="DC14" s="111"/>
     </row>
     <row r="15" spans="1:107">
       <c r="B15" s="30"/>
@@ -4876,9 +4876,9 @@
       <c r="D15" s="32"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="71">
         <v>3</v>
       </c>
@@ -4920,71 +4920,71 @@
       <c r="AP15" s="60"/>
       <c r="AQ15" s="60"/>
       <c r="AR15" s="60"/>
-      <c r="AS15" s="154" t="s">
+      <c r="AS15" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="AT15" s="152"/>
-      <c r="AU15" s="157"/>
-      <c r="AV15" s="157"/>
-      <c r="AW15" s="157"/>
-      <c r="AX15" s="157"/>
-      <c r="AY15" s="157"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
+      <c r="AX15" s="124"/>
+      <c r="AY15" s="124"/>
       <c r="AZ15" s="75"/>
-      <c r="BA15" s="134"/>
-      <c r="BB15" s="139"/>
-      <c r="BC15" s="139"/>
-      <c r="BD15" s="139"/>
-      <c r="BE15" s="139"/>
-      <c r="BF15" s="139"/>
-      <c r="BG15" s="140"/>
-      <c r="BH15" s="134"/>
-      <c r="BI15" s="145"/>
-      <c r="BJ15" s="145"/>
-      <c r="BK15" s="145"/>
-      <c r="BL15" s="145"/>
-      <c r="BM15" s="145"/>
-      <c r="BN15" s="134"/>
-      <c r="BO15" s="134"/>
-      <c r="BP15" s="139"/>
-      <c r="BQ15" s="139"/>
-      <c r="BR15" s="132"/>
-      <c r="BS15" s="149"/>
-      <c r="BT15" s="139"/>
-      <c r="BU15" s="134"/>
-      <c r="BV15" s="134"/>
-      <c r="BW15" s="132"/>
-      <c r="BX15" s="132"/>
-      <c r="BY15" s="132"/>
-      <c r="BZ15" s="132"/>
-      <c r="CA15" s="133"/>
-      <c r="CB15" s="134"/>
-      <c r="CC15" s="134"/>
-      <c r="CD15" s="133"/>
-      <c r="CE15" s="133"/>
-      <c r="CF15" s="133"/>
-      <c r="CG15" s="133"/>
-      <c r="CH15" s="133"/>
-      <c r="CI15" s="134"/>
-      <c r="CJ15" s="134"/>
-      <c r="CK15" s="133"/>
-      <c r="CL15" s="133"/>
-      <c r="CM15" s="133"/>
-      <c r="CN15" s="133"/>
-      <c r="CO15" s="133"/>
-      <c r="CP15" s="134"/>
-      <c r="CQ15" s="134"/>
-      <c r="CR15" s="133"/>
-      <c r="CS15" s="133"/>
-      <c r="CT15" s="133"/>
-      <c r="CU15" s="133"/>
-      <c r="CV15" s="133"/>
-      <c r="CW15" s="134"/>
-      <c r="CX15" s="134"/>
-      <c r="CY15" s="133"/>
-      <c r="CZ15" s="133"/>
-      <c r="DA15" s="133"/>
-      <c r="DB15" s="133"/>
-      <c r="DC15" s="148"/>
+      <c r="BA15" s="101"/>
+      <c r="BB15" s="106"/>
+      <c r="BC15" s="106"/>
+      <c r="BD15" s="106"/>
+      <c r="BE15" s="106"/>
+      <c r="BF15" s="106"/>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="101"/>
+      <c r="BI15" s="112"/>
+      <c r="BJ15" s="112"/>
+      <c r="BK15" s="112"/>
+      <c r="BL15" s="112"/>
+      <c r="BM15" s="112"/>
+      <c r="BN15" s="101"/>
+      <c r="BO15" s="101"/>
+      <c r="BP15" s="106"/>
+      <c r="BQ15" s="106"/>
+      <c r="BR15" s="99"/>
+      <c r="BS15" s="116"/>
+      <c r="BT15" s="106"/>
+      <c r="BU15" s="101"/>
+      <c r="BV15" s="101"/>
+      <c r="BW15" s="99"/>
+      <c r="BX15" s="99"/>
+      <c r="BY15" s="99"/>
+      <c r="BZ15" s="99"/>
+      <c r="CA15" s="100"/>
+      <c r="CB15" s="101"/>
+      <c r="CC15" s="101"/>
+      <c r="CD15" s="100"/>
+      <c r="CE15" s="100"/>
+      <c r="CF15" s="100"/>
+      <c r="CG15" s="100"/>
+      <c r="CH15" s="100"/>
+      <c r="CI15" s="101"/>
+      <c r="CJ15" s="101"/>
+      <c r="CK15" s="100"/>
+      <c r="CL15" s="100"/>
+      <c r="CM15" s="100"/>
+      <c r="CN15" s="100"/>
+      <c r="CO15" s="100"/>
+      <c r="CP15" s="101"/>
+      <c r="CQ15" s="101"/>
+      <c r="CR15" s="100"/>
+      <c r="CS15" s="100"/>
+      <c r="CT15" s="100"/>
+      <c r="CU15" s="100"/>
+      <c r="CV15" s="100"/>
+      <c r="CW15" s="101"/>
+      <c r="CX15" s="101"/>
+      <c r="CY15" s="100"/>
+      <c r="CZ15" s="100"/>
+      <c r="DA15" s="100"/>
+      <c r="DB15" s="100"/>
+      <c r="DC15" s="115"/>
     </row>
     <row r="16" spans="1:107">
       <c r="B16" s="30"/>
@@ -4992,13 +4992,13 @@
       <c r="D16" s="32"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="115">
+      <c r="G16" s="125">
         <v>3</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="I16" s="125" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="66">
@@ -5042,71 +5042,71 @@
       <c r="AP16" s="58"/>
       <c r="AQ16" s="58"/>
       <c r="AR16" s="58"/>
-      <c r="AS16" s="151" t="s">
+      <c r="AS16" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="AT16" s="151"/>
-      <c r="AU16" s="156"/>
-      <c r="AV16" s="156"/>
-      <c r="AW16" s="156"/>
-      <c r="AX16" s="156"/>
-      <c r="AY16" s="156"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="123"/>
+      <c r="AV16" s="123"/>
+      <c r="AW16" s="123"/>
+      <c r="AX16" s="123"/>
+      <c r="AY16" s="123"/>
       <c r="AZ16" s="69"/>
-      <c r="BA16" s="131"/>
-      <c r="BB16" s="130"/>
-      <c r="BC16" s="130"/>
-      <c r="BD16" s="130"/>
-      <c r="BE16" s="130"/>
-      <c r="BF16" s="130"/>
-      <c r="BG16" s="131"/>
-      <c r="BH16" s="131"/>
-      <c r="BI16" s="143"/>
-      <c r="BJ16" s="143"/>
-      <c r="BK16" s="143"/>
-      <c r="BL16" s="143"/>
-      <c r="BM16" s="143"/>
-      <c r="BN16" s="131"/>
-      <c r="BO16" s="131"/>
-      <c r="BP16" s="130"/>
-      <c r="BQ16" s="130"/>
-      <c r="BR16" s="130"/>
-      <c r="BS16" s="129"/>
-      <c r="BT16" s="137"/>
-      <c r="BU16" s="131"/>
-      <c r="BV16" s="131"/>
-      <c r="BW16" s="129"/>
-      <c r="BX16" s="129"/>
-      <c r="BY16" s="129"/>
-      <c r="BZ16" s="129"/>
-      <c r="CA16" s="129"/>
-      <c r="CB16" s="131"/>
-      <c r="CC16" s="131"/>
-      <c r="CD16" s="129"/>
-      <c r="CE16" s="129"/>
-      <c r="CF16" s="129"/>
-      <c r="CG16" s="129"/>
-      <c r="CH16" s="130"/>
-      <c r="CI16" s="131"/>
-      <c r="CJ16" s="131"/>
-      <c r="CK16" s="130"/>
-      <c r="CL16" s="130"/>
-      <c r="CM16" s="130"/>
-      <c r="CN16" s="130"/>
-      <c r="CO16" s="130"/>
-      <c r="CP16" s="131"/>
-      <c r="CQ16" s="131"/>
-      <c r="CR16" s="130"/>
-      <c r="CS16" s="130"/>
-      <c r="CT16" s="130"/>
-      <c r="CU16" s="130"/>
-      <c r="CV16" s="130"/>
-      <c r="CW16" s="131"/>
-      <c r="CX16" s="131"/>
-      <c r="CY16" s="130"/>
-      <c r="CZ16" s="130"/>
-      <c r="DA16" s="130"/>
-      <c r="DB16" s="130"/>
-      <c r="DC16" s="144"/>
+      <c r="BA16" s="98"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="98"/>
+      <c r="BH16" s="98"/>
+      <c r="BI16" s="110"/>
+      <c r="BJ16" s="110"/>
+      <c r="BK16" s="110"/>
+      <c r="BL16" s="110"/>
+      <c r="BM16" s="110"/>
+      <c r="BN16" s="98"/>
+      <c r="BO16" s="98"/>
+      <c r="BP16" s="97"/>
+      <c r="BQ16" s="97"/>
+      <c r="BR16" s="97"/>
+      <c r="BS16" s="96"/>
+      <c r="BT16" s="104"/>
+      <c r="BU16" s="98"/>
+      <c r="BV16" s="98"/>
+      <c r="BW16" s="96"/>
+      <c r="BX16" s="96"/>
+      <c r="BY16" s="96"/>
+      <c r="BZ16" s="96"/>
+      <c r="CA16" s="96"/>
+      <c r="CB16" s="98"/>
+      <c r="CC16" s="98"/>
+      <c r="CD16" s="96"/>
+      <c r="CE16" s="96"/>
+      <c r="CF16" s="96"/>
+      <c r="CG16" s="96"/>
+      <c r="CH16" s="97"/>
+      <c r="CI16" s="98"/>
+      <c r="CJ16" s="98"/>
+      <c r="CK16" s="97"/>
+      <c r="CL16" s="97"/>
+      <c r="CM16" s="97"/>
+      <c r="CN16" s="97"/>
+      <c r="CO16" s="97"/>
+      <c r="CP16" s="98"/>
+      <c r="CQ16" s="98"/>
+      <c r="CR16" s="97"/>
+      <c r="CS16" s="97"/>
+      <c r="CT16" s="97"/>
+      <c r="CU16" s="97"/>
+      <c r="CV16" s="97"/>
+      <c r="CW16" s="98"/>
+      <c r="CX16" s="98"/>
+      <c r="CY16" s="97"/>
+      <c r="CZ16" s="97"/>
+      <c r="DA16" s="97"/>
+      <c r="DB16" s="97"/>
+      <c r="DC16" s="111"/>
     </row>
     <row r="17" spans="2:107">
       <c r="B17" s="30"/>
@@ -5114,9 +5114,9 @@
       <c r="D17" s="32"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
       <c r="J17" s="66">
         <v>2</v>
       </c>
@@ -5158,71 +5158,71 @@
       <c r="AP17" s="58"/>
       <c r="AQ17" s="58"/>
       <c r="AR17" s="58"/>
-      <c r="AS17" s="153" t="s">
+      <c r="AS17" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="AT17" s="151"/>
-      <c r="AU17" s="156"/>
-      <c r="AV17" s="156"/>
-      <c r="AW17" s="156"/>
-      <c r="AX17" s="156"/>
-      <c r="AY17" s="156"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="123"/>
+      <c r="AV17" s="123"/>
+      <c r="AW17" s="123"/>
+      <c r="AX17" s="123"/>
+      <c r="AY17" s="123"/>
       <c r="AZ17" s="69"/>
-      <c r="BA17" s="131"/>
-      <c r="BB17" s="137"/>
-      <c r="BC17" s="137"/>
-      <c r="BD17" s="137"/>
-      <c r="BE17" s="137"/>
-      <c r="BF17" s="137"/>
-      <c r="BG17" s="138"/>
-      <c r="BH17" s="131"/>
-      <c r="BI17" s="143"/>
-      <c r="BJ17" s="143"/>
-      <c r="BK17" s="143"/>
-      <c r="BL17" s="143"/>
-      <c r="BM17" s="143"/>
-      <c r="BN17" s="131"/>
-      <c r="BO17" s="131"/>
-      <c r="BP17" s="129"/>
-      <c r="BQ17" s="129"/>
-      <c r="BR17" s="129"/>
-      <c r="BS17" s="129"/>
-      <c r="BT17" s="137"/>
-      <c r="BU17" s="131"/>
-      <c r="BV17" s="131"/>
-      <c r="BW17" s="129"/>
-      <c r="BX17" s="129"/>
-      <c r="BY17" s="129"/>
-      <c r="BZ17" s="129"/>
-      <c r="CA17" s="130"/>
-      <c r="CB17" s="131"/>
-      <c r="CC17" s="131"/>
-      <c r="CD17" s="130"/>
-      <c r="CE17" s="130"/>
-      <c r="CF17" s="130"/>
-      <c r="CG17" s="130"/>
-      <c r="CH17" s="130"/>
-      <c r="CI17" s="131"/>
-      <c r="CJ17" s="131"/>
-      <c r="CK17" s="130"/>
-      <c r="CL17" s="130"/>
-      <c r="CM17" s="130"/>
-      <c r="CN17" s="130"/>
-      <c r="CO17" s="130"/>
-      <c r="CP17" s="131"/>
-      <c r="CQ17" s="131"/>
-      <c r="CR17" s="130"/>
-      <c r="CS17" s="130"/>
-      <c r="CT17" s="130"/>
-      <c r="CU17" s="130"/>
-      <c r="CV17" s="130"/>
-      <c r="CW17" s="131"/>
-      <c r="CX17" s="131"/>
-      <c r="CY17" s="130"/>
-      <c r="CZ17" s="130"/>
-      <c r="DA17" s="130"/>
-      <c r="DB17" s="130"/>
-      <c r="DC17" s="144"/>
+      <c r="BA17" s="98"/>
+      <c r="BB17" s="104"/>
+      <c r="BC17" s="104"/>
+      <c r="BD17" s="104"/>
+      <c r="BE17" s="104"/>
+      <c r="BF17" s="104"/>
+      <c r="BG17" s="105"/>
+      <c r="BH17" s="98"/>
+      <c r="BI17" s="110"/>
+      <c r="BJ17" s="110"/>
+      <c r="BK17" s="110"/>
+      <c r="BL17" s="110"/>
+      <c r="BM17" s="110"/>
+      <c r="BN17" s="98"/>
+      <c r="BO17" s="98"/>
+      <c r="BP17" s="96"/>
+      <c r="BQ17" s="96"/>
+      <c r="BR17" s="96"/>
+      <c r="BS17" s="96"/>
+      <c r="BT17" s="104"/>
+      <c r="BU17" s="98"/>
+      <c r="BV17" s="98"/>
+      <c r="BW17" s="96"/>
+      <c r="BX17" s="96"/>
+      <c r="BY17" s="96"/>
+      <c r="BZ17" s="96"/>
+      <c r="CA17" s="97"/>
+      <c r="CB17" s="98"/>
+      <c r="CC17" s="98"/>
+      <c r="CD17" s="97"/>
+      <c r="CE17" s="97"/>
+      <c r="CF17" s="97"/>
+      <c r="CG17" s="97"/>
+      <c r="CH17" s="97"/>
+      <c r="CI17" s="98"/>
+      <c r="CJ17" s="98"/>
+      <c r="CK17" s="97"/>
+      <c r="CL17" s="97"/>
+      <c r="CM17" s="97"/>
+      <c r="CN17" s="97"/>
+      <c r="CO17" s="97"/>
+      <c r="CP17" s="98"/>
+      <c r="CQ17" s="98"/>
+      <c r="CR17" s="97"/>
+      <c r="CS17" s="97"/>
+      <c r="CT17" s="97"/>
+      <c r="CU17" s="97"/>
+      <c r="CV17" s="97"/>
+      <c r="CW17" s="98"/>
+      <c r="CX17" s="98"/>
+      <c r="CY17" s="97"/>
+      <c r="CZ17" s="97"/>
+      <c r="DA17" s="97"/>
+      <c r="DB17" s="97"/>
+      <c r="DC17" s="111"/>
     </row>
     <row r="18" spans="2:107">
       <c r="B18" s="30"/>
@@ -5230,9 +5230,9 @@
       <c r="D18" s="32"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
       <c r="J18" s="71">
         <v>3</v>
       </c>
@@ -5274,71 +5274,71 @@
       <c r="AP18" s="60"/>
       <c r="AQ18" s="60"/>
       <c r="AR18" s="60"/>
-      <c r="AS18" s="152" t="s">
+      <c r="AS18" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="AT18" s="152"/>
-      <c r="AU18" s="157"/>
-      <c r="AV18" s="157"/>
-      <c r="AW18" s="157"/>
-      <c r="AX18" s="157"/>
-      <c r="AY18" s="157"/>
+      <c r="AT18" s="119"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="124"/>
       <c r="AZ18" s="75"/>
-      <c r="BA18" s="134"/>
-      <c r="BB18" s="133"/>
-      <c r="BC18" s="133"/>
-      <c r="BD18" s="133"/>
-      <c r="BE18" s="133"/>
-      <c r="BF18" s="133"/>
-      <c r="BG18" s="134"/>
-      <c r="BH18" s="134"/>
-      <c r="BI18" s="145"/>
-      <c r="BJ18" s="145"/>
-      <c r="BK18" s="145"/>
-      <c r="BL18" s="145"/>
-      <c r="BM18" s="145"/>
-      <c r="BN18" s="134"/>
-      <c r="BO18" s="134"/>
-      <c r="BP18" s="133"/>
-      <c r="BQ18" s="133"/>
-      <c r="BR18" s="133"/>
-      <c r="BS18" s="133"/>
-      <c r="BT18" s="139"/>
-      <c r="BU18" s="134"/>
-      <c r="BV18" s="134"/>
-      <c r="BW18" s="132"/>
-      <c r="BX18" s="132"/>
-      <c r="BY18" s="132"/>
-      <c r="BZ18" s="132"/>
-      <c r="CA18" s="129"/>
-      <c r="CB18" s="134"/>
-      <c r="CC18" s="134"/>
-      <c r="CD18" s="129"/>
-      <c r="CE18" s="132"/>
-      <c r="CF18" s="132"/>
-      <c r="CG18" s="132"/>
-      <c r="CH18" s="133"/>
-      <c r="CI18" s="134"/>
-      <c r="CJ18" s="134"/>
-      <c r="CK18" s="133"/>
-      <c r="CL18" s="133"/>
-      <c r="CM18" s="133"/>
-      <c r="CN18" s="133"/>
-      <c r="CO18" s="133"/>
-      <c r="CP18" s="134"/>
-      <c r="CQ18" s="134"/>
-      <c r="CR18" s="133"/>
-      <c r="CS18" s="133"/>
-      <c r="CT18" s="133"/>
-      <c r="CU18" s="133"/>
-      <c r="CV18" s="133"/>
-      <c r="CW18" s="134"/>
-      <c r="CX18" s="134"/>
-      <c r="CY18" s="133"/>
-      <c r="CZ18" s="133"/>
-      <c r="DA18" s="133"/>
-      <c r="DB18" s="133"/>
-      <c r="DC18" s="148"/>
+      <c r="BA18" s="101"/>
+      <c r="BB18" s="100"/>
+      <c r="BC18" s="100"/>
+      <c r="BD18" s="100"/>
+      <c r="BE18" s="100"/>
+      <c r="BF18" s="100"/>
+      <c r="BG18" s="101"/>
+      <c r="BH18" s="101"/>
+      <c r="BI18" s="112"/>
+      <c r="BJ18" s="112"/>
+      <c r="BK18" s="112"/>
+      <c r="BL18" s="112"/>
+      <c r="BM18" s="112"/>
+      <c r="BN18" s="101"/>
+      <c r="BO18" s="101"/>
+      <c r="BP18" s="100"/>
+      <c r="BQ18" s="100"/>
+      <c r="BR18" s="100"/>
+      <c r="BS18" s="100"/>
+      <c r="BT18" s="106"/>
+      <c r="BU18" s="101"/>
+      <c r="BV18" s="101"/>
+      <c r="BW18" s="99"/>
+      <c r="BX18" s="99"/>
+      <c r="BY18" s="99"/>
+      <c r="BZ18" s="99"/>
+      <c r="CA18" s="96"/>
+      <c r="CB18" s="101"/>
+      <c r="CC18" s="101"/>
+      <c r="CD18" s="96"/>
+      <c r="CE18" s="99"/>
+      <c r="CF18" s="99"/>
+      <c r="CG18" s="99"/>
+      <c r="CH18" s="100"/>
+      <c r="CI18" s="101"/>
+      <c r="CJ18" s="101"/>
+      <c r="CK18" s="100"/>
+      <c r="CL18" s="100"/>
+      <c r="CM18" s="100"/>
+      <c r="CN18" s="100"/>
+      <c r="CO18" s="100"/>
+      <c r="CP18" s="101"/>
+      <c r="CQ18" s="101"/>
+      <c r="CR18" s="100"/>
+      <c r="CS18" s="100"/>
+      <c r="CT18" s="100"/>
+      <c r="CU18" s="100"/>
+      <c r="CV18" s="100"/>
+      <c r="CW18" s="101"/>
+      <c r="CX18" s="101"/>
+      <c r="CY18" s="100"/>
+      <c r="CZ18" s="100"/>
+      <c r="DA18" s="100"/>
+      <c r="DB18" s="100"/>
+      <c r="DC18" s="115"/>
     </row>
     <row r="19" spans="2:107" ht="15" customHeight="1">
       <c r="B19" s="30"/>
@@ -5346,13 +5346,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="115">
+      <c r="G19" s="125">
         <v>4</v>
       </c>
-      <c r="H19" s="115" t="s">
+      <c r="H19" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="125" t="s">
         <v>45</v>
       </c>
       <c r="J19" s="62">
@@ -5396,71 +5396,71 @@
       <c r="AP19" s="56"/>
       <c r="AQ19" s="56"/>
       <c r="AR19" s="56"/>
-      <c r="AS19" s="150"/>
-      <c r="AT19" s="150" t="s">
+      <c r="AS19" s="117"/>
+      <c r="AT19" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="AU19" s="155"/>
-      <c r="AV19" s="155"/>
-      <c r="AW19" s="155"/>
-      <c r="AX19" s="155"/>
-      <c r="AY19" s="155"/>
+      <c r="AU19" s="122"/>
+      <c r="AV19" s="122"/>
+      <c r="AW19" s="122"/>
+      <c r="AX19" s="122"/>
+      <c r="AY19" s="122"/>
       <c r="AZ19" s="65"/>
-      <c r="BA19" s="128"/>
-      <c r="BB19" s="127"/>
-      <c r="BC19" s="127"/>
-      <c r="BD19" s="127"/>
-      <c r="BE19" s="127"/>
-      <c r="BF19" s="127"/>
-      <c r="BG19" s="128"/>
-      <c r="BH19" s="128"/>
-      <c r="BI19" s="141"/>
-      <c r="BJ19" s="141"/>
-      <c r="BK19" s="141"/>
-      <c r="BL19" s="141"/>
-      <c r="BM19" s="141"/>
-      <c r="BN19" s="128"/>
-      <c r="BO19" s="128"/>
-      <c r="BP19" s="127"/>
-      <c r="BQ19" s="127"/>
-      <c r="BR19" s="127"/>
-      <c r="BS19" s="126"/>
-      <c r="BT19" s="135"/>
-      <c r="BU19" s="128"/>
-      <c r="BV19" s="128"/>
-      <c r="BW19" s="127"/>
-      <c r="BX19" s="127"/>
-      <c r="BY19" s="126"/>
-      <c r="BZ19" s="126"/>
-      <c r="CA19" s="126"/>
-      <c r="CB19" s="128"/>
-      <c r="CC19" s="128"/>
-      <c r="CD19" s="126"/>
-      <c r="CE19" s="126"/>
-      <c r="CF19" s="126"/>
-      <c r="CG19" s="126"/>
-      <c r="CH19" s="126"/>
-      <c r="CI19" s="128"/>
-      <c r="CJ19" s="128"/>
-      <c r="CK19" s="126"/>
-      <c r="CL19" s="126"/>
-      <c r="CM19" s="126"/>
-      <c r="CN19" s="126"/>
-      <c r="CO19" s="126"/>
-      <c r="CP19" s="128"/>
-      <c r="CQ19" s="128"/>
-      <c r="CR19" s="127"/>
-      <c r="CS19" s="127"/>
-      <c r="CT19" s="127"/>
-      <c r="CU19" s="127"/>
-      <c r="CV19" s="127"/>
-      <c r="CW19" s="128"/>
-      <c r="CX19" s="128"/>
-      <c r="CY19" s="127"/>
-      <c r="CZ19" s="127"/>
-      <c r="DA19" s="127"/>
-      <c r="DB19" s="127"/>
-      <c r="DC19" s="147"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="94"/>
+      <c r="BC19" s="94"/>
+      <c r="BD19" s="94"/>
+      <c r="BE19" s="94"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="95"/>
+      <c r="BH19" s="95"/>
+      <c r="BI19" s="108"/>
+      <c r="BJ19" s="108"/>
+      <c r="BK19" s="108"/>
+      <c r="BL19" s="108"/>
+      <c r="BM19" s="108"/>
+      <c r="BN19" s="95"/>
+      <c r="BO19" s="95"/>
+      <c r="BP19" s="94"/>
+      <c r="BQ19" s="94"/>
+      <c r="BR19" s="94"/>
+      <c r="BS19" s="93"/>
+      <c r="BT19" s="102"/>
+      <c r="BU19" s="95"/>
+      <c r="BV19" s="95"/>
+      <c r="BW19" s="94"/>
+      <c r="BX19" s="94"/>
+      <c r="BY19" s="93"/>
+      <c r="BZ19" s="93"/>
+      <c r="CA19" s="93"/>
+      <c r="CB19" s="95"/>
+      <c r="CC19" s="95"/>
+      <c r="CD19" s="93"/>
+      <c r="CE19" s="93"/>
+      <c r="CF19" s="93"/>
+      <c r="CG19" s="93"/>
+      <c r="CH19" s="93"/>
+      <c r="CI19" s="95"/>
+      <c r="CJ19" s="95"/>
+      <c r="CK19" s="93"/>
+      <c r="CL19" s="93"/>
+      <c r="CM19" s="93"/>
+      <c r="CN19" s="93"/>
+      <c r="CO19" s="93"/>
+      <c r="CP19" s="95"/>
+      <c r="CQ19" s="95"/>
+      <c r="CR19" s="94"/>
+      <c r="CS19" s="94"/>
+      <c r="CT19" s="94"/>
+      <c r="CU19" s="94"/>
+      <c r="CV19" s="94"/>
+      <c r="CW19" s="95"/>
+      <c r="CX19" s="95"/>
+      <c r="CY19" s="94"/>
+      <c r="CZ19" s="94"/>
+      <c r="DA19" s="94"/>
+      <c r="DB19" s="94"/>
+      <c r="DC19" s="114"/>
     </row>
     <row r="20" spans="2:107">
       <c r="B20" s="30"/>
@@ -5468,9 +5468,9 @@
       <c r="D20" s="32"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
       <c r="J20" s="66">
         <v>2</v>
       </c>
@@ -5512,71 +5512,71 @@
       <c r="AP20" s="58"/>
       <c r="AQ20" s="58"/>
       <c r="AR20" s="58"/>
-      <c r="AS20" s="151"/>
-      <c r="AT20" s="151" t="s">
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="AU20" s="156"/>
-      <c r="AV20" s="156"/>
-      <c r="AW20" s="156"/>
-      <c r="AX20" s="156"/>
-      <c r="AY20" s="156"/>
+      <c r="AU20" s="123"/>
+      <c r="AV20" s="123"/>
+      <c r="AW20" s="123"/>
+      <c r="AX20" s="123"/>
+      <c r="AY20" s="123"/>
       <c r="AZ20" s="69"/>
-      <c r="BA20" s="131"/>
-      <c r="BB20" s="130"/>
-      <c r="BC20" s="130"/>
-      <c r="BD20" s="130"/>
-      <c r="BE20" s="130"/>
-      <c r="BF20" s="130"/>
-      <c r="BG20" s="131"/>
-      <c r="BH20" s="131"/>
-      <c r="BI20" s="143"/>
-      <c r="BJ20" s="143"/>
-      <c r="BK20" s="143"/>
-      <c r="BL20" s="143"/>
-      <c r="BM20" s="143"/>
-      <c r="BN20" s="131"/>
-      <c r="BO20" s="131"/>
-      <c r="BP20" s="130"/>
-      <c r="BQ20" s="130"/>
-      <c r="BR20" s="130"/>
-      <c r="BS20" s="129"/>
-      <c r="BT20" s="137"/>
-      <c r="BU20" s="131"/>
-      <c r="BV20" s="131"/>
-      <c r="BW20" s="130"/>
-      <c r="BX20" s="130"/>
-      <c r="BY20" s="129"/>
-      <c r="BZ20" s="129"/>
-      <c r="CA20" s="129"/>
-      <c r="CB20" s="131"/>
-      <c r="CC20" s="131"/>
-      <c r="CD20" s="129"/>
-      <c r="CE20" s="129"/>
-      <c r="CF20" s="129"/>
-      <c r="CG20" s="129"/>
-      <c r="CH20" s="129"/>
-      <c r="CI20" s="131"/>
-      <c r="CJ20" s="131"/>
-      <c r="CK20" s="129"/>
-      <c r="CL20" s="129"/>
-      <c r="CM20" s="129"/>
-      <c r="CN20" s="129"/>
-      <c r="CO20" s="129"/>
-      <c r="CP20" s="131"/>
-      <c r="CQ20" s="131"/>
-      <c r="CR20" s="130"/>
-      <c r="CS20" s="130"/>
-      <c r="CT20" s="130"/>
-      <c r="CU20" s="130"/>
-      <c r="CV20" s="130"/>
-      <c r="CW20" s="131"/>
-      <c r="CX20" s="131"/>
-      <c r="CY20" s="130"/>
-      <c r="CZ20" s="130"/>
-      <c r="DA20" s="130"/>
-      <c r="DB20" s="130"/>
-      <c r="DC20" s="144"/>
+      <c r="BA20" s="98"/>
+      <c r="BB20" s="97"/>
+      <c r="BC20" s="97"/>
+      <c r="BD20" s="97"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="97"/>
+      <c r="BG20" s="98"/>
+      <c r="BH20" s="98"/>
+      <c r="BI20" s="110"/>
+      <c r="BJ20" s="110"/>
+      <c r="BK20" s="110"/>
+      <c r="BL20" s="110"/>
+      <c r="BM20" s="110"/>
+      <c r="BN20" s="98"/>
+      <c r="BO20" s="98"/>
+      <c r="BP20" s="97"/>
+      <c r="BQ20" s="97"/>
+      <c r="BR20" s="97"/>
+      <c r="BS20" s="96"/>
+      <c r="BT20" s="104"/>
+      <c r="BU20" s="98"/>
+      <c r="BV20" s="98"/>
+      <c r="BW20" s="97"/>
+      <c r="BX20" s="97"/>
+      <c r="BY20" s="96"/>
+      <c r="BZ20" s="96"/>
+      <c r="CA20" s="96"/>
+      <c r="CB20" s="98"/>
+      <c r="CC20" s="98"/>
+      <c r="CD20" s="96"/>
+      <c r="CE20" s="96"/>
+      <c r="CF20" s="96"/>
+      <c r="CG20" s="96"/>
+      <c r="CH20" s="96"/>
+      <c r="CI20" s="98"/>
+      <c r="CJ20" s="98"/>
+      <c r="CK20" s="96"/>
+      <c r="CL20" s="96"/>
+      <c r="CM20" s="96"/>
+      <c r="CN20" s="96"/>
+      <c r="CO20" s="96"/>
+      <c r="CP20" s="98"/>
+      <c r="CQ20" s="98"/>
+      <c r="CR20" s="97"/>
+      <c r="CS20" s="97"/>
+      <c r="CT20" s="97"/>
+      <c r="CU20" s="97"/>
+      <c r="CV20" s="97"/>
+      <c r="CW20" s="98"/>
+      <c r="CX20" s="98"/>
+      <c r="CY20" s="97"/>
+      <c r="CZ20" s="97"/>
+      <c r="DA20" s="97"/>
+      <c r="DB20" s="97"/>
+      <c r="DC20" s="111"/>
     </row>
     <row r="21" spans="2:107">
       <c r="B21" s="30"/>
@@ -5584,9 +5584,9 @@
       <c r="D21" s="32"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="71">
         <v>3</v>
       </c>
@@ -5628,71 +5628,71 @@
       <c r="AP21" s="60"/>
       <c r="AQ21" s="60"/>
       <c r="AR21" s="60"/>
-      <c r="AS21" s="152"/>
-      <c r="AT21" s="152" t="s">
+      <c r="AS21" s="119"/>
+      <c r="AT21" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="AU21" s="157"/>
-      <c r="AV21" s="157"/>
-      <c r="AW21" s="157"/>
-      <c r="AX21" s="157"/>
-      <c r="AY21" s="157"/>
+      <c r="AU21" s="124"/>
+      <c r="AV21" s="124"/>
+      <c r="AW21" s="124"/>
+      <c r="AX21" s="124"/>
+      <c r="AY21" s="124"/>
       <c r="AZ21" s="75"/>
-      <c r="BA21" s="134"/>
-      <c r="BB21" s="133"/>
-      <c r="BC21" s="133"/>
-      <c r="BD21" s="133"/>
-      <c r="BE21" s="133"/>
-      <c r="BF21" s="133"/>
-      <c r="BG21" s="134"/>
-      <c r="BH21" s="134"/>
-      <c r="BI21" s="145"/>
-      <c r="BJ21" s="145"/>
-      <c r="BK21" s="145"/>
-      <c r="BL21" s="145"/>
-      <c r="BM21" s="145"/>
-      <c r="BN21" s="134"/>
-      <c r="BO21" s="134"/>
-      <c r="BP21" s="133"/>
-      <c r="BQ21" s="133"/>
-      <c r="BR21" s="133"/>
-      <c r="BS21" s="132"/>
-      <c r="BT21" s="139"/>
-      <c r="BU21" s="134"/>
-      <c r="BV21" s="134"/>
-      <c r="BW21" s="133"/>
-      <c r="BX21" s="133"/>
-      <c r="BY21" s="132"/>
-      <c r="BZ21" s="132"/>
-      <c r="CA21" s="132"/>
-      <c r="CB21" s="134"/>
-      <c r="CC21" s="134"/>
-      <c r="CD21" s="132"/>
-      <c r="CE21" s="132"/>
-      <c r="CF21" s="132"/>
-      <c r="CG21" s="132"/>
-      <c r="CH21" s="132"/>
-      <c r="CI21" s="134"/>
-      <c r="CJ21" s="134"/>
-      <c r="CK21" s="132"/>
-      <c r="CL21" s="132"/>
-      <c r="CM21" s="132"/>
-      <c r="CN21" s="132"/>
-      <c r="CO21" s="132"/>
-      <c r="CP21" s="134"/>
-      <c r="CQ21" s="134"/>
-      <c r="CR21" s="133"/>
-      <c r="CS21" s="133"/>
-      <c r="CT21" s="133"/>
-      <c r="CU21" s="133"/>
-      <c r="CV21" s="133"/>
-      <c r="CW21" s="134"/>
-      <c r="CX21" s="134"/>
-      <c r="CY21" s="133"/>
-      <c r="CZ21" s="133"/>
-      <c r="DA21" s="133"/>
-      <c r="DB21" s="133"/>
-      <c r="DC21" s="148"/>
+      <c r="BA21" s="101"/>
+      <c r="BB21" s="100"/>
+      <c r="BC21" s="100"/>
+      <c r="BD21" s="100"/>
+      <c r="BE21" s="100"/>
+      <c r="BF21" s="100"/>
+      <c r="BG21" s="101"/>
+      <c r="BH21" s="101"/>
+      <c r="BI21" s="112"/>
+      <c r="BJ21" s="112"/>
+      <c r="BK21" s="112"/>
+      <c r="BL21" s="112"/>
+      <c r="BM21" s="112"/>
+      <c r="BN21" s="101"/>
+      <c r="BO21" s="101"/>
+      <c r="BP21" s="100"/>
+      <c r="BQ21" s="100"/>
+      <c r="BR21" s="100"/>
+      <c r="BS21" s="99"/>
+      <c r="BT21" s="106"/>
+      <c r="BU21" s="101"/>
+      <c r="BV21" s="101"/>
+      <c r="BW21" s="100"/>
+      <c r="BX21" s="100"/>
+      <c r="BY21" s="99"/>
+      <c r="BZ21" s="99"/>
+      <c r="CA21" s="99"/>
+      <c r="CB21" s="101"/>
+      <c r="CC21" s="101"/>
+      <c r="CD21" s="99"/>
+      <c r="CE21" s="99"/>
+      <c r="CF21" s="99"/>
+      <c r="CG21" s="99"/>
+      <c r="CH21" s="99"/>
+      <c r="CI21" s="101"/>
+      <c r="CJ21" s="101"/>
+      <c r="CK21" s="99"/>
+      <c r="CL21" s="99"/>
+      <c r="CM21" s="99"/>
+      <c r="CN21" s="99"/>
+      <c r="CO21" s="99"/>
+      <c r="CP21" s="101"/>
+      <c r="CQ21" s="101"/>
+      <c r="CR21" s="100"/>
+      <c r="CS21" s="100"/>
+      <c r="CT21" s="100"/>
+      <c r="CU21" s="100"/>
+      <c r="CV21" s="100"/>
+      <c r="CW21" s="101"/>
+      <c r="CX21" s="101"/>
+      <c r="CY21" s="100"/>
+      <c r="CZ21" s="100"/>
+      <c r="DA21" s="100"/>
+      <c r="DB21" s="100"/>
+      <c r="DC21" s="115"/>
     </row>
     <row r="22" spans="2:107">
       <c r="B22" s="30"/>
@@ -5700,13 +5700,13 @@
       <c r="D22" s="32"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="115">
+      <c r="G22" s="125">
         <v>5</v>
       </c>
-      <c r="H22" s="115" t="s">
+      <c r="H22" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="125" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="66">
@@ -5750,71 +5750,71 @@
       <c r="AP22" s="58"/>
       <c r="AQ22" s="58"/>
       <c r="AR22" s="58"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="156" t="s">
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="118"/>
+      <c r="AU22" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="AV22" s="156"/>
-      <c r="AW22" s="156"/>
-      <c r="AX22" s="156"/>
-      <c r="AY22" s="156"/>
+      <c r="AV22" s="123"/>
+      <c r="AW22" s="123"/>
+      <c r="AX22" s="123"/>
+      <c r="AY22" s="123"/>
       <c r="AZ22" s="69"/>
-      <c r="BA22" s="131"/>
-      <c r="BB22" s="130"/>
-      <c r="BC22" s="130"/>
-      <c r="BD22" s="130"/>
-      <c r="BE22" s="130"/>
-      <c r="BF22" s="130"/>
-      <c r="BG22" s="131"/>
-      <c r="BH22" s="131"/>
-      <c r="BI22" s="143"/>
-      <c r="BJ22" s="143"/>
-      <c r="BK22" s="143"/>
-      <c r="BL22" s="143"/>
-      <c r="BM22" s="143"/>
-      <c r="BN22" s="131"/>
-      <c r="BO22" s="131"/>
-      <c r="BP22" s="130"/>
-      <c r="BQ22" s="130"/>
-      <c r="BR22" s="130"/>
-      <c r="BS22" s="129"/>
-      <c r="BT22" s="137"/>
-      <c r="BU22" s="131"/>
-      <c r="BV22" s="131"/>
-      <c r="BW22" s="129"/>
-      <c r="BX22" s="129"/>
-      <c r="BY22" s="129"/>
-      <c r="BZ22" s="129"/>
-      <c r="CA22" s="129"/>
-      <c r="CB22" s="131"/>
-      <c r="CC22" s="131"/>
-      <c r="CD22" s="129"/>
-      <c r="CE22" s="129"/>
-      <c r="CF22" s="129"/>
-      <c r="CG22" s="129"/>
-      <c r="CH22" s="130"/>
-      <c r="CI22" s="131"/>
-      <c r="CJ22" s="131"/>
-      <c r="CK22" s="130"/>
-      <c r="CL22" s="130"/>
-      <c r="CM22" s="130"/>
-      <c r="CN22" s="130"/>
-      <c r="CO22" s="130"/>
-      <c r="CP22" s="131"/>
-      <c r="CQ22" s="131"/>
-      <c r="CR22" s="130"/>
-      <c r="CS22" s="130"/>
-      <c r="CT22" s="130"/>
-      <c r="CU22" s="130"/>
-      <c r="CV22" s="130"/>
-      <c r="CW22" s="131"/>
-      <c r="CX22" s="131"/>
-      <c r="CY22" s="130"/>
-      <c r="CZ22" s="130"/>
-      <c r="DA22" s="130"/>
-      <c r="DB22" s="130"/>
-      <c r="DC22" s="144"/>
+      <c r="BA22" s="98"/>
+      <c r="BB22" s="97"/>
+      <c r="BC22" s="97"/>
+      <c r="BD22" s="97"/>
+      <c r="BE22" s="97"/>
+      <c r="BF22" s="97"/>
+      <c r="BG22" s="98"/>
+      <c r="BH22" s="98"/>
+      <c r="BI22" s="110"/>
+      <c r="BJ22" s="110"/>
+      <c r="BK22" s="110"/>
+      <c r="BL22" s="110"/>
+      <c r="BM22" s="110"/>
+      <c r="BN22" s="98"/>
+      <c r="BO22" s="98"/>
+      <c r="BP22" s="97"/>
+      <c r="BQ22" s="97"/>
+      <c r="BR22" s="97"/>
+      <c r="BS22" s="96"/>
+      <c r="BT22" s="104"/>
+      <c r="BU22" s="98"/>
+      <c r="BV22" s="98"/>
+      <c r="BW22" s="96"/>
+      <c r="BX22" s="96"/>
+      <c r="BY22" s="96"/>
+      <c r="BZ22" s="96"/>
+      <c r="CA22" s="96"/>
+      <c r="CB22" s="98"/>
+      <c r="CC22" s="98"/>
+      <c r="CD22" s="96"/>
+      <c r="CE22" s="96"/>
+      <c r="CF22" s="96"/>
+      <c r="CG22" s="96"/>
+      <c r="CH22" s="97"/>
+      <c r="CI22" s="98"/>
+      <c r="CJ22" s="98"/>
+      <c r="CK22" s="97"/>
+      <c r="CL22" s="97"/>
+      <c r="CM22" s="97"/>
+      <c r="CN22" s="97"/>
+      <c r="CO22" s="97"/>
+      <c r="CP22" s="98"/>
+      <c r="CQ22" s="98"/>
+      <c r="CR22" s="97"/>
+      <c r="CS22" s="97"/>
+      <c r="CT22" s="97"/>
+      <c r="CU22" s="97"/>
+      <c r="CV22" s="97"/>
+      <c r="CW22" s="98"/>
+      <c r="CX22" s="98"/>
+      <c r="CY22" s="97"/>
+      <c r="CZ22" s="97"/>
+      <c r="DA22" s="97"/>
+      <c r="DB22" s="97"/>
+      <c r="DC22" s="111"/>
     </row>
     <row r="23" spans="2:107">
       <c r="B23" s="30"/>
@@ -5822,9 +5822,9 @@
       <c r="D23" s="32"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="66">
         <v>2</v>
       </c>
@@ -5866,71 +5866,71 @@
       <c r="AP23" s="58"/>
       <c r="AQ23" s="58"/>
       <c r="AR23" s="58"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="151"/>
-      <c r="AU23" s="156"/>
-      <c r="AV23" s="156" t="s">
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="118"/>
+      <c r="AU23" s="123"/>
+      <c r="AV23" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="AW23" s="156"/>
-      <c r="AX23" s="156"/>
-      <c r="AY23" s="156"/>
+      <c r="AW23" s="123"/>
+      <c r="AX23" s="123"/>
+      <c r="AY23" s="123"/>
       <c r="AZ23" s="69"/>
-      <c r="BA23" s="131"/>
-      <c r="BB23" s="137"/>
-      <c r="BC23" s="137"/>
-      <c r="BD23" s="137"/>
-      <c r="BE23" s="137"/>
-      <c r="BF23" s="137"/>
-      <c r="BG23" s="138"/>
-      <c r="BH23" s="131"/>
-      <c r="BI23" s="143"/>
-      <c r="BJ23" s="143"/>
-      <c r="BK23" s="143"/>
-      <c r="BL23" s="143"/>
-      <c r="BM23" s="143"/>
-      <c r="BN23" s="131"/>
-      <c r="BO23" s="131"/>
-      <c r="BP23" s="129"/>
-      <c r="BQ23" s="129"/>
-      <c r="BR23" s="129"/>
-      <c r="BS23" s="129"/>
-      <c r="BT23" s="137"/>
-      <c r="BU23" s="131"/>
-      <c r="BV23" s="131"/>
-      <c r="BW23" s="129"/>
-      <c r="BX23" s="129"/>
-      <c r="BY23" s="129"/>
-      <c r="BZ23" s="129"/>
-      <c r="CA23" s="130"/>
-      <c r="CB23" s="131"/>
-      <c r="CC23" s="131"/>
-      <c r="CD23" s="130"/>
-      <c r="CE23" s="130"/>
-      <c r="CF23" s="130"/>
-      <c r="CG23" s="130"/>
-      <c r="CH23" s="130"/>
-      <c r="CI23" s="131"/>
-      <c r="CJ23" s="131"/>
-      <c r="CK23" s="130"/>
-      <c r="CL23" s="130"/>
-      <c r="CM23" s="130"/>
-      <c r="CN23" s="130"/>
-      <c r="CO23" s="130"/>
-      <c r="CP23" s="131"/>
-      <c r="CQ23" s="131"/>
-      <c r="CR23" s="130"/>
-      <c r="CS23" s="130"/>
-      <c r="CT23" s="130"/>
-      <c r="CU23" s="130"/>
-      <c r="CV23" s="130"/>
-      <c r="CW23" s="131"/>
-      <c r="CX23" s="131"/>
-      <c r="CY23" s="130"/>
-      <c r="CZ23" s="130"/>
-      <c r="DA23" s="130"/>
-      <c r="DB23" s="130"/>
-      <c r="DC23" s="144"/>
+      <c r="BA23" s="98"/>
+      <c r="BB23" s="104"/>
+      <c r="BC23" s="104"/>
+      <c r="BD23" s="104"/>
+      <c r="BE23" s="104"/>
+      <c r="BF23" s="104"/>
+      <c r="BG23" s="105"/>
+      <c r="BH23" s="98"/>
+      <c r="BI23" s="110"/>
+      <c r="BJ23" s="110"/>
+      <c r="BK23" s="110"/>
+      <c r="BL23" s="110"/>
+      <c r="BM23" s="110"/>
+      <c r="BN23" s="98"/>
+      <c r="BO23" s="98"/>
+      <c r="BP23" s="96"/>
+      <c r="BQ23" s="96"/>
+      <c r="BR23" s="96"/>
+      <c r="BS23" s="96"/>
+      <c r="BT23" s="104"/>
+      <c r="BU23" s="98"/>
+      <c r="BV23" s="98"/>
+      <c r="BW23" s="96"/>
+      <c r="BX23" s="96"/>
+      <c r="BY23" s="96"/>
+      <c r="BZ23" s="96"/>
+      <c r="CA23" s="97"/>
+      <c r="CB23" s="98"/>
+      <c r="CC23" s="98"/>
+      <c r="CD23" s="97"/>
+      <c r="CE23" s="97"/>
+      <c r="CF23" s="97"/>
+      <c r="CG23" s="97"/>
+      <c r="CH23" s="97"/>
+      <c r="CI23" s="98"/>
+      <c r="CJ23" s="98"/>
+      <c r="CK23" s="97"/>
+      <c r="CL23" s="97"/>
+      <c r="CM23" s="97"/>
+      <c r="CN23" s="97"/>
+      <c r="CO23" s="97"/>
+      <c r="CP23" s="98"/>
+      <c r="CQ23" s="98"/>
+      <c r="CR23" s="97"/>
+      <c r="CS23" s="97"/>
+      <c r="CT23" s="97"/>
+      <c r="CU23" s="97"/>
+      <c r="CV23" s="97"/>
+      <c r="CW23" s="98"/>
+      <c r="CX23" s="98"/>
+      <c r="CY23" s="97"/>
+      <c r="CZ23" s="97"/>
+      <c r="DA23" s="97"/>
+      <c r="DB23" s="97"/>
+      <c r="DC23" s="111"/>
     </row>
     <row r="24" spans="2:107">
       <c r="B24" s="30"/>
@@ -5938,9 +5938,9 @@
       <c r="D24" s="32"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="71">
         <v>3</v>
       </c>
@@ -5982,71 +5982,71 @@
       <c r="AP24" s="60"/>
       <c r="AQ24" s="60"/>
       <c r="AR24" s="60"/>
-      <c r="AS24" s="152"/>
-      <c r="AT24" s="152"/>
-      <c r="AU24" s="157"/>
-      <c r="AV24" s="157"/>
-      <c r="AW24" s="157" t="s">
+      <c r="AS24" s="119"/>
+      <c r="AT24" s="119"/>
+      <c r="AU24" s="124"/>
+      <c r="AV24" s="124"/>
+      <c r="AW24" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="AX24" s="157"/>
-      <c r="AY24" s="157"/>
+      <c r="AX24" s="124"/>
+      <c r="AY24" s="124"/>
       <c r="AZ24" s="75"/>
-      <c r="BA24" s="134"/>
-      <c r="BB24" s="133"/>
-      <c r="BC24" s="133"/>
-      <c r="BD24" s="133"/>
-      <c r="BE24" s="133"/>
-      <c r="BF24" s="133"/>
-      <c r="BG24" s="134"/>
-      <c r="BH24" s="134"/>
-      <c r="BI24" s="145"/>
-      <c r="BJ24" s="145"/>
-      <c r="BK24" s="145"/>
-      <c r="BL24" s="145"/>
-      <c r="BM24" s="145"/>
-      <c r="BN24" s="134"/>
-      <c r="BO24" s="134"/>
-      <c r="BP24" s="133"/>
-      <c r="BQ24" s="133"/>
-      <c r="BR24" s="133"/>
-      <c r="BS24" s="133"/>
-      <c r="BT24" s="139"/>
-      <c r="BU24" s="134"/>
-      <c r="BV24" s="134"/>
-      <c r="BW24" s="132"/>
-      <c r="BX24" s="132"/>
-      <c r="BY24" s="132"/>
-      <c r="BZ24" s="132"/>
-      <c r="CA24" s="129"/>
-      <c r="CB24" s="134"/>
-      <c r="CC24" s="134"/>
-      <c r="CD24" s="129"/>
-      <c r="CE24" s="132"/>
-      <c r="CF24" s="132"/>
-      <c r="CG24" s="132"/>
-      <c r="CH24" s="133"/>
-      <c r="CI24" s="134"/>
-      <c r="CJ24" s="134"/>
-      <c r="CK24" s="133"/>
-      <c r="CL24" s="133"/>
-      <c r="CM24" s="133"/>
-      <c r="CN24" s="133"/>
-      <c r="CO24" s="133"/>
-      <c r="CP24" s="134"/>
-      <c r="CQ24" s="134"/>
-      <c r="CR24" s="133"/>
-      <c r="CS24" s="133"/>
-      <c r="CT24" s="133"/>
-      <c r="CU24" s="133"/>
-      <c r="CV24" s="133"/>
-      <c r="CW24" s="134"/>
-      <c r="CX24" s="134"/>
-      <c r="CY24" s="133"/>
-      <c r="CZ24" s="133"/>
-      <c r="DA24" s="133"/>
-      <c r="DB24" s="133"/>
-      <c r="DC24" s="148"/>
+      <c r="BA24" s="101"/>
+      <c r="BB24" s="100"/>
+      <c r="BC24" s="100"/>
+      <c r="BD24" s="100"/>
+      <c r="BE24" s="100"/>
+      <c r="BF24" s="100"/>
+      <c r="BG24" s="101"/>
+      <c r="BH24" s="101"/>
+      <c r="BI24" s="112"/>
+      <c r="BJ24" s="112"/>
+      <c r="BK24" s="112"/>
+      <c r="BL24" s="112"/>
+      <c r="BM24" s="112"/>
+      <c r="BN24" s="101"/>
+      <c r="BO24" s="101"/>
+      <c r="BP24" s="100"/>
+      <c r="BQ24" s="100"/>
+      <c r="BR24" s="100"/>
+      <c r="BS24" s="100"/>
+      <c r="BT24" s="106"/>
+      <c r="BU24" s="101"/>
+      <c r="BV24" s="101"/>
+      <c r="BW24" s="99"/>
+      <c r="BX24" s="99"/>
+      <c r="BY24" s="99"/>
+      <c r="BZ24" s="99"/>
+      <c r="CA24" s="96"/>
+      <c r="CB24" s="101"/>
+      <c r="CC24" s="101"/>
+      <c r="CD24" s="96"/>
+      <c r="CE24" s="99"/>
+      <c r="CF24" s="99"/>
+      <c r="CG24" s="99"/>
+      <c r="CH24" s="100"/>
+      <c r="CI24" s="101"/>
+      <c r="CJ24" s="101"/>
+      <c r="CK24" s="100"/>
+      <c r="CL24" s="100"/>
+      <c r="CM24" s="100"/>
+      <c r="CN24" s="100"/>
+      <c r="CO24" s="100"/>
+      <c r="CP24" s="101"/>
+      <c r="CQ24" s="101"/>
+      <c r="CR24" s="100"/>
+      <c r="CS24" s="100"/>
+      <c r="CT24" s="100"/>
+      <c r="CU24" s="100"/>
+      <c r="CV24" s="100"/>
+      <c r="CW24" s="101"/>
+      <c r="CX24" s="101"/>
+      <c r="CY24" s="100"/>
+      <c r="CZ24" s="100"/>
+      <c r="DA24" s="100"/>
+      <c r="DB24" s="100"/>
+      <c r="DC24" s="115"/>
     </row>
     <row r="25" spans="2:107">
       <c r="B25" s="30"/>
@@ -6054,13 +6054,13 @@
       <c r="D25" s="32"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="115">
+      <c r="G25" s="125">
         <v>6</v>
       </c>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="115" t="s">
+      <c r="I25" s="125" t="s">
         <v>47</v>
       </c>
       <c r="J25" s="66">
@@ -6104,71 +6104,71 @@
       <c r="AP25" s="58"/>
       <c r="AQ25" s="58"/>
       <c r="AR25" s="58"/>
-      <c r="AS25" s="151"/>
-      <c r="AT25" s="151"/>
-      <c r="AU25" s="156"/>
-      <c r="AV25" s="156"/>
-      <c r="AW25" s="156"/>
-      <c r="AX25" s="156" t="s">
+      <c r="AS25" s="118"/>
+      <c r="AT25" s="118"/>
+      <c r="AU25" s="123"/>
+      <c r="AV25" s="123"/>
+      <c r="AW25" s="123"/>
+      <c r="AX25" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="AY25" s="156"/>
+      <c r="AY25" s="123"/>
       <c r="AZ25" s="69"/>
-      <c r="BA25" s="131"/>
-      <c r="BB25" s="130"/>
-      <c r="BC25" s="130"/>
-      <c r="BD25" s="130"/>
-      <c r="BE25" s="130"/>
-      <c r="BF25" s="130"/>
-      <c r="BG25" s="131"/>
-      <c r="BH25" s="131"/>
-      <c r="BI25" s="143"/>
-      <c r="BJ25" s="143"/>
-      <c r="BK25" s="143"/>
-      <c r="BL25" s="143"/>
-      <c r="BM25" s="143"/>
-      <c r="BN25" s="131"/>
-      <c r="BO25" s="131"/>
-      <c r="BP25" s="130"/>
-      <c r="BQ25" s="130"/>
-      <c r="BR25" s="130"/>
-      <c r="BS25" s="129"/>
-      <c r="BT25" s="137"/>
-      <c r="BU25" s="131"/>
-      <c r="BV25" s="131"/>
-      <c r="BW25" s="129"/>
-      <c r="BX25" s="129"/>
-      <c r="BY25" s="129"/>
-      <c r="BZ25" s="129"/>
-      <c r="CA25" s="129"/>
-      <c r="CB25" s="131"/>
-      <c r="CC25" s="131"/>
-      <c r="CD25" s="129"/>
-      <c r="CE25" s="129"/>
-      <c r="CF25" s="129"/>
-      <c r="CG25" s="129"/>
-      <c r="CH25" s="130"/>
-      <c r="CI25" s="131"/>
-      <c r="CJ25" s="131"/>
-      <c r="CK25" s="130"/>
-      <c r="CL25" s="130"/>
-      <c r="CM25" s="130"/>
-      <c r="CN25" s="130"/>
-      <c r="CO25" s="130"/>
-      <c r="CP25" s="131"/>
-      <c r="CQ25" s="131"/>
-      <c r="CR25" s="130"/>
-      <c r="CS25" s="130"/>
-      <c r="CT25" s="130"/>
-      <c r="CU25" s="130"/>
-      <c r="CV25" s="130"/>
-      <c r="CW25" s="131"/>
-      <c r="CX25" s="131"/>
-      <c r="CY25" s="130"/>
-      <c r="CZ25" s="130"/>
-      <c r="DA25" s="130"/>
-      <c r="DB25" s="130"/>
-      <c r="DC25" s="144"/>
+      <c r="BA25" s="98"/>
+      <c r="BB25" s="97"/>
+      <c r="BC25" s="97"/>
+      <c r="BD25" s="97"/>
+      <c r="BE25" s="97"/>
+      <c r="BF25" s="97"/>
+      <c r="BG25" s="98"/>
+      <c r="BH25" s="98"/>
+      <c r="BI25" s="110"/>
+      <c r="BJ25" s="110"/>
+      <c r="BK25" s="110"/>
+      <c r="BL25" s="110"/>
+      <c r="BM25" s="110"/>
+      <c r="BN25" s="98"/>
+      <c r="BO25" s="98"/>
+      <c r="BP25" s="97"/>
+      <c r="BQ25" s="97"/>
+      <c r="BR25" s="97"/>
+      <c r="BS25" s="96"/>
+      <c r="BT25" s="104"/>
+      <c r="BU25" s="98"/>
+      <c r="BV25" s="98"/>
+      <c r="BW25" s="96"/>
+      <c r="BX25" s="96"/>
+      <c r="BY25" s="96"/>
+      <c r="BZ25" s="96"/>
+      <c r="CA25" s="96"/>
+      <c r="CB25" s="98"/>
+      <c r="CC25" s="98"/>
+      <c r="CD25" s="96"/>
+      <c r="CE25" s="96"/>
+      <c r="CF25" s="96"/>
+      <c r="CG25" s="96"/>
+      <c r="CH25" s="97"/>
+      <c r="CI25" s="98"/>
+      <c r="CJ25" s="98"/>
+      <c r="CK25" s="97"/>
+      <c r="CL25" s="97"/>
+      <c r="CM25" s="97"/>
+      <c r="CN25" s="97"/>
+      <c r="CO25" s="97"/>
+      <c r="CP25" s="98"/>
+      <c r="CQ25" s="98"/>
+      <c r="CR25" s="97"/>
+      <c r="CS25" s="97"/>
+      <c r="CT25" s="97"/>
+      <c r="CU25" s="97"/>
+      <c r="CV25" s="97"/>
+      <c r="CW25" s="98"/>
+      <c r="CX25" s="98"/>
+      <c r="CY25" s="97"/>
+      <c r="CZ25" s="97"/>
+      <c r="DA25" s="97"/>
+      <c r="DB25" s="97"/>
+      <c r="DC25" s="111"/>
     </row>
     <row r="26" spans="2:107">
       <c r="B26" s="30"/>
@@ -6176,9 +6176,9 @@
       <c r="D26" s="32"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="66">
         <v>2</v>
       </c>
@@ -6220,71 +6220,71 @@
       <c r="AP26" s="58"/>
       <c r="AQ26" s="58"/>
       <c r="AR26" s="58"/>
-      <c r="AS26" s="153"/>
-      <c r="AT26" s="151"/>
-      <c r="AU26" s="156"/>
-      <c r="AV26" s="156"/>
-      <c r="AW26" s="156"/>
-      <c r="AX26" s="156"/>
-      <c r="AY26" s="156" t="s">
+      <c r="AS26" s="120"/>
+      <c r="AT26" s="118"/>
+      <c r="AU26" s="123"/>
+      <c r="AV26" s="123"/>
+      <c r="AW26" s="123"/>
+      <c r="AX26" s="123"/>
+      <c r="AY26" s="123" t="s">
         <v>53</v>
       </c>
       <c r="AZ26" s="69"/>
-      <c r="BA26" s="131"/>
-      <c r="BB26" s="137"/>
-      <c r="BC26" s="137"/>
-      <c r="BD26" s="137"/>
-      <c r="BE26" s="137"/>
-      <c r="BF26" s="137"/>
-      <c r="BG26" s="138"/>
-      <c r="BH26" s="131"/>
-      <c r="BI26" s="143"/>
-      <c r="BJ26" s="143"/>
-      <c r="BK26" s="143"/>
-      <c r="BL26" s="143"/>
-      <c r="BM26" s="143"/>
-      <c r="BN26" s="131"/>
-      <c r="BO26" s="131"/>
-      <c r="BP26" s="129"/>
-      <c r="BQ26" s="129"/>
-      <c r="BR26" s="129"/>
-      <c r="BS26" s="129"/>
-      <c r="BT26" s="137"/>
-      <c r="BU26" s="131"/>
-      <c r="BV26" s="131"/>
-      <c r="BW26" s="129"/>
-      <c r="BX26" s="129"/>
-      <c r="BY26" s="129"/>
-      <c r="BZ26" s="129"/>
-      <c r="CA26" s="130"/>
-      <c r="CB26" s="131"/>
-      <c r="CC26" s="131"/>
-      <c r="CD26" s="130"/>
-      <c r="CE26" s="130"/>
-      <c r="CF26" s="130"/>
-      <c r="CG26" s="130"/>
-      <c r="CH26" s="130"/>
-      <c r="CI26" s="131"/>
-      <c r="CJ26" s="131"/>
-      <c r="CK26" s="130"/>
-      <c r="CL26" s="130"/>
-      <c r="CM26" s="130"/>
-      <c r="CN26" s="130"/>
-      <c r="CO26" s="130"/>
-      <c r="CP26" s="131"/>
-      <c r="CQ26" s="131"/>
-      <c r="CR26" s="130"/>
-      <c r="CS26" s="130"/>
-      <c r="CT26" s="130"/>
-      <c r="CU26" s="130"/>
-      <c r="CV26" s="130"/>
-      <c r="CW26" s="131"/>
-      <c r="CX26" s="131"/>
-      <c r="CY26" s="130"/>
-      <c r="CZ26" s="130"/>
-      <c r="DA26" s="130"/>
-      <c r="DB26" s="130"/>
-      <c r="DC26" s="144"/>
+      <c r="BA26" s="98"/>
+      <c r="BB26" s="104"/>
+      <c r="BC26" s="104"/>
+      <c r="BD26" s="104"/>
+      <c r="BE26" s="104"/>
+      <c r="BF26" s="104"/>
+      <c r="BG26" s="105"/>
+      <c r="BH26" s="98"/>
+      <c r="BI26" s="110"/>
+      <c r="BJ26" s="110"/>
+      <c r="BK26" s="110"/>
+      <c r="BL26" s="110"/>
+      <c r="BM26" s="110"/>
+      <c r="BN26" s="98"/>
+      <c r="BO26" s="98"/>
+      <c r="BP26" s="96"/>
+      <c r="BQ26" s="96"/>
+      <c r="BR26" s="96"/>
+      <c r="BS26" s="96"/>
+      <c r="BT26" s="104"/>
+      <c r="BU26" s="98"/>
+      <c r="BV26" s="98"/>
+      <c r="BW26" s="96"/>
+      <c r="BX26" s="96"/>
+      <c r="BY26" s="96"/>
+      <c r="BZ26" s="96"/>
+      <c r="CA26" s="97"/>
+      <c r="CB26" s="98"/>
+      <c r="CC26" s="98"/>
+      <c r="CD26" s="97"/>
+      <c r="CE26" s="97"/>
+      <c r="CF26" s="97"/>
+      <c r="CG26" s="97"/>
+      <c r="CH26" s="97"/>
+      <c r="CI26" s="98"/>
+      <c r="CJ26" s="98"/>
+      <c r="CK26" s="97"/>
+      <c r="CL26" s="97"/>
+      <c r="CM26" s="97"/>
+      <c r="CN26" s="97"/>
+      <c r="CO26" s="97"/>
+      <c r="CP26" s="98"/>
+      <c r="CQ26" s="98"/>
+      <c r="CR26" s="97"/>
+      <c r="CS26" s="97"/>
+      <c r="CT26" s="97"/>
+      <c r="CU26" s="97"/>
+      <c r="CV26" s="97"/>
+      <c r="CW26" s="98"/>
+      <c r="CX26" s="98"/>
+      <c r="CY26" s="97"/>
+      <c r="CZ26" s="97"/>
+      <c r="DA26" s="97"/>
+      <c r="DB26" s="97"/>
+      <c r="DC26" s="111"/>
     </row>
     <row r="27" spans="2:107">
       <c r="B27" s="30"/>
@@ -6292,9 +6292,9 @@
       <c r="D27" s="32"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
       <c r="J27" s="71">
         <v>3</v>
       </c>
@@ -6336,71 +6336,71 @@
       <c r="AP27" s="60"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="60"/>
-      <c r="AS27" s="152"/>
-      <c r="AT27" s="152"/>
-      <c r="AU27" s="157"/>
-      <c r="AV27" s="157"/>
-      <c r="AW27" s="157"/>
-      <c r="AX27" s="157"/>
-      <c r="AY27" s="157" t="s">
+      <c r="AS27" s="119"/>
+      <c r="AT27" s="119"/>
+      <c r="AU27" s="124"/>
+      <c r="AV27" s="124"/>
+      <c r="AW27" s="124"/>
+      <c r="AX27" s="124"/>
+      <c r="AY27" s="124" t="s">
         <v>58</v>
       </c>
       <c r="AZ27" s="75"/>
-      <c r="BA27" s="134"/>
-      <c r="BB27" s="133"/>
-      <c r="BC27" s="133"/>
-      <c r="BD27" s="133"/>
-      <c r="BE27" s="133"/>
-      <c r="BF27" s="133"/>
-      <c r="BG27" s="134"/>
-      <c r="BH27" s="134"/>
-      <c r="BI27" s="145"/>
-      <c r="BJ27" s="145"/>
-      <c r="BK27" s="145"/>
-      <c r="BL27" s="145"/>
-      <c r="BM27" s="145"/>
-      <c r="BN27" s="134"/>
-      <c r="BO27" s="134"/>
-      <c r="BP27" s="133"/>
-      <c r="BQ27" s="133"/>
-      <c r="BR27" s="133"/>
-      <c r="BS27" s="133"/>
-      <c r="BT27" s="139"/>
-      <c r="BU27" s="134"/>
-      <c r="BV27" s="134"/>
-      <c r="BW27" s="132"/>
-      <c r="BX27" s="132"/>
-      <c r="BY27" s="132"/>
-      <c r="BZ27" s="132"/>
-      <c r="CA27" s="129"/>
-      <c r="CB27" s="134"/>
-      <c r="CC27" s="134"/>
-      <c r="CD27" s="129"/>
-      <c r="CE27" s="132"/>
-      <c r="CF27" s="132"/>
-      <c r="CG27" s="132"/>
-      <c r="CH27" s="133"/>
-      <c r="CI27" s="134"/>
-      <c r="CJ27" s="134"/>
-      <c r="CK27" s="133"/>
-      <c r="CL27" s="133"/>
-      <c r="CM27" s="133"/>
-      <c r="CN27" s="133"/>
-      <c r="CO27" s="133"/>
-      <c r="CP27" s="134"/>
-      <c r="CQ27" s="134"/>
-      <c r="CR27" s="133"/>
-      <c r="CS27" s="133"/>
-      <c r="CT27" s="133"/>
-      <c r="CU27" s="133"/>
-      <c r="CV27" s="133"/>
-      <c r="CW27" s="134"/>
-      <c r="CX27" s="134"/>
-      <c r="CY27" s="133"/>
-      <c r="CZ27" s="133"/>
-      <c r="DA27" s="133"/>
-      <c r="DB27" s="133"/>
-      <c r="DC27" s="148"/>
+      <c r="BA27" s="101"/>
+      <c r="BB27" s="100"/>
+      <c r="BC27" s="100"/>
+      <c r="BD27" s="100"/>
+      <c r="BE27" s="100"/>
+      <c r="BF27" s="100"/>
+      <c r="BG27" s="101"/>
+      <c r="BH27" s="101"/>
+      <c r="BI27" s="112"/>
+      <c r="BJ27" s="112"/>
+      <c r="BK27" s="112"/>
+      <c r="BL27" s="112"/>
+      <c r="BM27" s="112"/>
+      <c r="BN27" s="101"/>
+      <c r="BO27" s="101"/>
+      <c r="BP27" s="100"/>
+      <c r="BQ27" s="100"/>
+      <c r="BR27" s="100"/>
+      <c r="BS27" s="100"/>
+      <c r="BT27" s="106"/>
+      <c r="BU27" s="101"/>
+      <c r="BV27" s="101"/>
+      <c r="BW27" s="99"/>
+      <c r="BX27" s="99"/>
+      <c r="BY27" s="99"/>
+      <c r="BZ27" s="99"/>
+      <c r="CA27" s="96"/>
+      <c r="CB27" s="101"/>
+      <c r="CC27" s="101"/>
+      <c r="CD27" s="96"/>
+      <c r="CE27" s="99"/>
+      <c r="CF27" s="99"/>
+      <c r="CG27" s="99"/>
+      <c r="CH27" s="100"/>
+      <c r="CI27" s="101"/>
+      <c r="CJ27" s="101"/>
+      <c r="CK27" s="100"/>
+      <c r="CL27" s="100"/>
+      <c r="CM27" s="100"/>
+      <c r="CN27" s="100"/>
+      <c r="CO27" s="100"/>
+      <c r="CP27" s="101"/>
+      <c r="CQ27" s="101"/>
+      <c r="CR27" s="100"/>
+      <c r="CS27" s="100"/>
+      <c r="CT27" s="100"/>
+      <c r="CU27" s="100"/>
+      <c r="CV27" s="100"/>
+      <c r="CW27" s="101"/>
+      <c r="CX27" s="101"/>
+      <c r="CY27" s="100"/>
+      <c r="CZ27" s="100"/>
+      <c r="DA27" s="100"/>
+      <c r="DB27" s="100"/>
+      <c r="DC27" s="115"/>
     </row>
     <row r="28" spans="2:107">
       <c r="B28" s="30"/>
@@ -6408,13 +6408,13 @@
       <c r="D28" s="32"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="115">
+      <c r="G28" s="125">
         <v>7</v>
       </c>
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I28" s="125" t="s">
         <v>48</v>
       </c>
       <c r="J28" s="66">
@@ -6468,61 +6468,61 @@
       <c r="AZ28" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="BA28" s="131"/>
-      <c r="BB28" s="130"/>
-      <c r="BC28" s="130"/>
-      <c r="BD28" s="130"/>
-      <c r="BE28" s="130"/>
-      <c r="BF28" s="130"/>
-      <c r="BG28" s="131"/>
-      <c r="BH28" s="131"/>
-      <c r="BI28" s="143"/>
-      <c r="BJ28" s="143"/>
-      <c r="BK28" s="143"/>
-      <c r="BL28" s="143"/>
-      <c r="BM28" s="143"/>
-      <c r="BN28" s="131"/>
-      <c r="BO28" s="131"/>
-      <c r="BP28" s="130"/>
-      <c r="BQ28" s="130"/>
-      <c r="BR28" s="130"/>
-      <c r="BS28" s="129"/>
-      <c r="BT28" s="137"/>
-      <c r="BU28" s="131"/>
-      <c r="BV28" s="131"/>
-      <c r="BW28" s="129"/>
-      <c r="BX28" s="129"/>
-      <c r="BY28" s="129"/>
-      <c r="BZ28" s="129"/>
-      <c r="CA28" s="129"/>
-      <c r="CB28" s="131"/>
-      <c r="CC28" s="131"/>
-      <c r="CD28" s="129"/>
-      <c r="CE28" s="129"/>
-      <c r="CF28" s="129"/>
-      <c r="CG28" s="129"/>
-      <c r="CH28" s="130"/>
-      <c r="CI28" s="131"/>
-      <c r="CJ28" s="131"/>
-      <c r="CK28" s="130"/>
-      <c r="CL28" s="130"/>
-      <c r="CM28" s="130"/>
-      <c r="CN28" s="130"/>
-      <c r="CO28" s="130"/>
-      <c r="CP28" s="131"/>
-      <c r="CQ28" s="131"/>
-      <c r="CR28" s="130"/>
-      <c r="CS28" s="130"/>
-      <c r="CT28" s="130"/>
-      <c r="CU28" s="130"/>
-      <c r="CV28" s="130"/>
-      <c r="CW28" s="131"/>
-      <c r="CX28" s="131"/>
-      <c r="CY28" s="130"/>
-      <c r="CZ28" s="130"/>
-      <c r="DA28" s="130"/>
-      <c r="DB28" s="130"/>
-      <c r="DC28" s="144"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="97"/>
+      <c r="BC28" s="97"/>
+      <c r="BD28" s="97"/>
+      <c r="BE28" s="97"/>
+      <c r="BF28" s="97"/>
+      <c r="BG28" s="98"/>
+      <c r="BH28" s="98"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="98"/>
+      <c r="BO28" s="98"/>
+      <c r="BP28" s="97"/>
+      <c r="BQ28" s="97"/>
+      <c r="BR28" s="97"/>
+      <c r="BS28" s="96"/>
+      <c r="BT28" s="104"/>
+      <c r="BU28" s="98"/>
+      <c r="BV28" s="98"/>
+      <c r="BW28" s="96"/>
+      <c r="BX28" s="96"/>
+      <c r="BY28" s="96"/>
+      <c r="BZ28" s="96"/>
+      <c r="CA28" s="96"/>
+      <c r="CB28" s="98"/>
+      <c r="CC28" s="98"/>
+      <c r="CD28" s="96"/>
+      <c r="CE28" s="96"/>
+      <c r="CF28" s="96"/>
+      <c r="CG28" s="96"/>
+      <c r="CH28" s="97"/>
+      <c r="CI28" s="98"/>
+      <c r="CJ28" s="98"/>
+      <c r="CK28" s="97"/>
+      <c r="CL28" s="97"/>
+      <c r="CM28" s="97"/>
+      <c r="CN28" s="97"/>
+      <c r="CO28" s="97"/>
+      <c r="CP28" s="98"/>
+      <c r="CQ28" s="98"/>
+      <c r="CR28" s="97"/>
+      <c r="CS28" s="97"/>
+      <c r="CT28" s="97"/>
+      <c r="CU28" s="97"/>
+      <c r="CV28" s="97"/>
+      <c r="CW28" s="98"/>
+      <c r="CX28" s="98"/>
+      <c r="CY28" s="97"/>
+      <c r="CZ28" s="97"/>
+      <c r="DA28" s="97"/>
+      <c r="DB28" s="97"/>
+      <c r="DC28" s="111"/>
     </row>
     <row r="29" spans="2:107">
       <c r="B29" s="30"/>
@@ -6530,9 +6530,9 @@
       <c r="D29" s="32"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
       <c r="J29" s="66">
         <v>2</v>
       </c>
@@ -6584,61 +6584,61 @@
       <c r="AZ29" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="BA29" s="131"/>
-      <c r="BB29" s="137"/>
-      <c r="BC29" s="137"/>
-      <c r="BD29" s="137"/>
-      <c r="BE29" s="137"/>
-      <c r="BF29" s="137"/>
-      <c r="BG29" s="138"/>
-      <c r="BH29" s="131"/>
-      <c r="BI29" s="143"/>
-      <c r="BJ29" s="143"/>
-      <c r="BK29" s="143"/>
-      <c r="BL29" s="143"/>
-      <c r="BM29" s="143"/>
-      <c r="BN29" s="131"/>
-      <c r="BO29" s="131"/>
-      <c r="BP29" s="129"/>
-      <c r="BQ29" s="129"/>
-      <c r="BR29" s="129"/>
-      <c r="BS29" s="129"/>
-      <c r="BT29" s="137"/>
-      <c r="BU29" s="131"/>
-      <c r="BV29" s="131"/>
-      <c r="BW29" s="129"/>
-      <c r="BX29" s="129"/>
-      <c r="BY29" s="129"/>
-      <c r="BZ29" s="129"/>
-      <c r="CA29" s="130"/>
-      <c r="CB29" s="131"/>
-      <c r="CC29" s="131"/>
-      <c r="CD29" s="130"/>
-      <c r="CE29" s="130"/>
-      <c r="CF29" s="130"/>
-      <c r="CG29" s="130"/>
-      <c r="CH29" s="130"/>
-      <c r="CI29" s="131"/>
-      <c r="CJ29" s="131"/>
-      <c r="CK29" s="130"/>
-      <c r="CL29" s="130"/>
-      <c r="CM29" s="130"/>
-      <c r="CN29" s="130"/>
-      <c r="CO29" s="130"/>
-      <c r="CP29" s="131"/>
-      <c r="CQ29" s="131"/>
-      <c r="CR29" s="130"/>
-      <c r="CS29" s="130"/>
-      <c r="CT29" s="130"/>
-      <c r="CU29" s="130"/>
-      <c r="CV29" s="130"/>
-      <c r="CW29" s="131"/>
-      <c r="CX29" s="131"/>
-      <c r="CY29" s="130"/>
-      <c r="CZ29" s="130"/>
-      <c r="DA29" s="130"/>
-      <c r="DB29" s="130"/>
-      <c r="DC29" s="144"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="104"/>
+      <c r="BC29" s="104"/>
+      <c r="BD29" s="104"/>
+      <c r="BE29" s="104"/>
+      <c r="BF29" s="104"/>
+      <c r="BG29" s="105"/>
+      <c r="BH29" s="98"/>
+      <c r="BI29" s="110"/>
+      <c r="BJ29" s="110"/>
+      <c r="BK29" s="110"/>
+      <c r="BL29" s="110"/>
+      <c r="BM29" s="110"/>
+      <c r="BN29" s="98"/>
+      <c r="BO29" s="98"/>
+      <c r="BP29" s="96"/>
+      <c r="BQ29" s="96"/>
+      <c r="BR29" s="96"/>
+      <c r="BS29" s="96"/>
+      <c r="BT29" s="104"/>
+      <c r="BU29" s="98"/>
+      <c r="BV29" s="98"/>
+      <c r="BW29" s="96"/>
+      <c r="BX29" s="96"/>
+      <c r="BY29" s="96"/>
+      <c r="BZ29" s="96"/>
+      <c r="CA29" s="97"/>
+      <c r="CB29" s="98"/>
+      <c r="CC29" s="98"/>
+      <c r="CD29" s="97"/>
+      <c r="CE29" s="97"/>
+      <c r="CF29" s="97"/>
+      <c r="CG29" s="97"/>
+      <c r="CH29" s="97"/>
+      <c r="CI29" s="98"/>
+      <c r="CJ29" s="98"/>
+      <c r="CK29" s="97"/>
+      <c r="CL29" s="97"/>
+      <c r="CM29" s="97"/>
+      <c r="CN29" s="97"/>
+      <c r="CO29" s="97"/>
+      <c r="CP29" s="98"/>
+      <c r="CQ29" s="98"/>
+      <c r="CR29" s="97"/>
+      <c r="CS29" s="97"/>
+      <c r="CT29" s="97"/>
+      <c r="CU29" s="97"/>
+      <c r="CV29" s="97"/>
+      <c r="CW29" s="98"/>
+      <c r="CX29" s="98"/>
+      <c r="CY29" s="97"/>
+      <c r="CZ29" s="97"/>
+      <c r="DA29" s="97"/>
+      <c r="DB29" s="97"/>
+      <c r="DC29" s="111"/>
     </row>
     <row r="30" spans="2:107">
       <c r="B30" s="30"/>
@@ -6646,9 +6646,9 @@
       <c r="D30" s="32"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="71">
         <v>3</v>
       </c>
@@ -6700,61 +6700,61 @@
       <c r="AZ30" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="BA30" s="134"/>
-      <c r="BB30" s="133"/>
-      <c r="BC30" s="133"/>
-      <c r="BD30" s="133"/>
-      <c r="BE30" s="133"/>
-      <c r="BF30" s="133"/>
-      <c r="BG30" s="134"/>
-      <c r="BH30" s="134"/>
-      <c r="BI30" s="145"/>
-      <c r="BJ30" s="145"/>
-      <c r="BK30" s="145"/>
-      <c r="BL30" s="145"/>
-      <c r="BM30" s="145"/>
-      <c r="BN30" s="134"/>
-      <c r="BO30" s="134"/>
-      <c r="BP30" s="133"/>
-      <c r="BQ30" s="133"/>
-      <c r="BR30" s="133"/>
-      <c r="BS30" s="133"/>
-      <c r="BT30" s="139"/>
-      <c r="BU30" s="134"/>
-      <c r="BV30" s="134"/>
-      <c r="BW30" s="132"/>
-      <c r="BX30" s="132"/>
-      <c r="BY30" s="132"/>
-      <c r="BZ30" s="132"/>
-      <c r="CA30" s="129"/>
-      <c r="CB30" s="134"/>
-      <c r="CC30" s="134"/>
-      <c r="CD30" s="129"/>
-      <c r="CE30" s="132"/>
-      <c r="CF30" s="132"/>
-      <c r="CG30" s="132"/>
-      <c r="CH30" s="133"/>
-      <c r="CI30" s="134"/>
-      <c r="CJ30" s="134"/>
-      <c r="CK30" s="133"/>
-      <c r="CL30" s="133"/>
-      <c r="CM30" s="133"/>
-      <c r="CN30" s="133"/>
-      <c r="CO30" s="133"/>
-      <c r="CP30" s="134"/>
-      <c r="CQ30" s="134"/>
-      <c r="CR30" s="133"/>
-      <c r="CS30" s="133"/>
-      <c r="CT30" s="133"/>
-      <c r="CU30" s="133"/>
-      <c r="CV30" s="133"/>
-      <c r="CW30" s="134"/>
-      <c r="CX30" s="134"/>
-      <c r="CY30" s="133"/>
-      <c r="CZ30" s="133"/>
-      <c r="DA30" s="133"/>
-      <c r="DB30" s="133"/>
-      <c r="DC30" s="148"/>
+      <c r="BA30" s="101"/>
+      <c r="BB30" s="100"/>
+      <c r="BC30" s="100"/>
+      <c r="BD30" s="100"/>
+      <c r="BE30" s="100"/>
+      <c r="BF30" s="100"/>
+      <c r="BG30" s="101"/>
+      <c r="BH30" s="101"/>
+      <c r="BI30" s="112"/>
+      <c r="BJ30" s="112"/>
+      <c r="BK30" s="112"/>
+      <c r="BL30" s="112"/>
+      <c r="BM30" s="112"/>
+      <c r="BN30" s="101"/>
+      <c r="BO30" s="101"/>
+      <c r="BP30" s="100"/>
+      <c r="BQ30" s="100"/>
+      <c r="BR30" s="100"/>
+      <c r="BS30" s="100"/>
+      <c r="BT30" s="106"/>
+      <c r="BU30" s="101"/>
+      <c r="BV30" s="101"/>
+      <c r="BW30" s="99"/>
+      <c r="BX30" s="99"/>
+      <c r="BY30" s="99"/>
+      <c r="BZ30" s="99"/>
+      <c r="CA30" s="96"/>
+      <c r="CB30" s="101"/>
+      <c r="CC30" s="101"/>
+      <c r="CD30" s="96"/>
+      <c r="CE30" s="99"/>
+      <c r="CF30" s="99"/>
+      <c r="CG30" s="99"/>
+      <c r="CH30" s="100"/>
+      <c r="CI30" s="101"/>
+      <c r="CJ30" s="101"/>
+      <c r="CK30" s="100"/>
+      <c r="CL30" s="100"/>
+      <c r="CM30" s="100"/>
+      <c r="CN30" s="100"/>
+      <c r="CO30" s="100"/>
+      <c r="CP30" s="101"/>
+      <c r="CQ30" s="101"/>
+      <c r="CR30" s="100"/>
+      <c r="CS30" s="100"/>
+      <c r="CT30" s="100"/>
+      <c r="CU30" s="100"/>
+      <c r="CV30" s="100"/>
+      <c r="CW30" s="101"/>
+      <c r="CX30" s="101"/>
+      <c r="CY30" s="100"/>
+      <c r="CZ30" s="100"/>
+      <c r="DA30" s="100"/>
+      <c r="DB30" s="100"/>
+      <c r="DC30" s="115"/>
     </row>
     <row r="31" spans="2:107">
       <c r="B31" s="30"/>
@@ -6762,13 +6762,13 @@
       <c r="D31" s="32"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="115">
+      <c r="G31" s="125">
         <v>8</v>
       </c>
-      <c r="H31" s="115" t="s">
+      <c r="H31" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="115" t="s">
+      <c r="I31" s="125" t="s">
         <v>48</v>
       </c>
       <c r="J31" s="66">
@@ -6820,63 +6820,63 @@
       <c r="AX31" s="58"/>
       <c r="AY31" s="58"/>
       <c r="AZ31" s="69"/>
-      <c r="BA31" s="131" t="s">
+      <c r="BA31" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="BB31" s="130"/>
-      <c r="BC31" s="130"/>
-      <c r="BD31" s="130"/>
-      <c r="BE31" s="130"/>
-      <c r="BF31" s="130"/>
-      <c r="BG31" s="131"/>
-      <c r="BH31" s="131"/>
-      <c r="BI31" s="143"/>
-      <c r="BJ31" s="143"/>
-      <c r="BK31" s="143"/>
-      <c r="BL31" s="143"/>
-      <c r="BM31" s="143"/>
-      <c r="BN31" s="131"/>
-      <c r="BO31" s="131"/>
-      <c r="BP31" s="130"/>
-      <c r="BQ31" s="130"/>
-      <c r="BR31" s="130"/>
-      <c r="BS31" s="129"/>
-      <c r="BT31" s="137"/>
-      <c r="BU31" s="131"/>
-      <c r="BV31" s="131"/>
-      <c r="BW31" s="129"/>
-      <c r="BX31" s="129"/>
-      <c r="BY31" s="129"/>
-      <c r="BZ31" s="129"/>
-      <c r="CA31" s="129"/>
-      <c r="CB31" s="131"/>
-      <c r="CC31" s="131"/>
-      <c r="CD31" s="129"/>
-      <c r="CE31" s="129"/>
-      <c r="CF31" s="129"/>
-      <c r="CG31" s="129"/>
-      <c r="CH31" s="130"/>
-      <c r="CI31" s="131"/>
-      <c r="CJ31" s="131"/>
-      <c r="CK31" s="130"/>
-      <c r="CL31" s="130"/>
-      <c r="CM31" s="130"/>
-      <c r="CN31" s="130"/>
-      <c r="CO31" s="130"/>
-      <c r="CP31" s="131"/>
-      <c r="CQ31" s="131"/>
-      <c r="CR31" s="130"/>
-      <c r="CS31" s="130"/>
-      <c r="CT31" s="130"/>
-      <c r="CU31" s="130"/>
-      <c r="CV31" s="130"/>
-      <c r="CW31" s="131"/>
-      <c r="CX31" s="131"/>
-      <c r="CY31" s="130"/>
-      <c r="CZ31" s="130"/>
-      <c r="DA31" s="130"/>
-      <c r="DB31" s="130"/>
-      <c r="DC31" s="144"/>
+      <c r="BB31" s="97"/>
+      <c r="BC31" s="97"/>
+      <c r="BD31" s="97"/>
+      <c r="BE31" s="97"/>
+      <c r="BF31" s="97"/>
+      <c r="BG31" s="98"/>
+      <c r="BH31" s="98"/>
+      <c r="BI31" s="110"/>
+      <c r="BJ31" s="110"/>
+      <c r="BK31" s="110"/>
+      <c r="BL31" s="110"/>
+      <c r="BM31" s="110"/>
+      <c r="BN31" s="98"/>
+      <c r="BO31" s="98"/>
+      <c r="BP31" s="97"/>
+      <c r="BQ31" s="97"/>
+      <c r="BR31" s="97"/>
+      <c r="BS31" s="96"/>
+      <c r="BT31" s="104"/>
+      <c r="BU31" s="98"/>
+      <c r="BV31" s="98"/>
+      <c r="BW31" s="96"/>
+      <c r="BX31" s="96"/>
+      <c r="BY31" s="96"/>
+      <c r="BZ31" s="96"/>
+      <c r="CA31" s="96"/>
+      <c r="CB31" s="98"/>
+      <c r="CC31" s="98"/>
+      <c r="CD31" s="96"/>
+      <c r="CE31" s="96"/>
+      <c r="CF31" s="96"/>
+      <c r="CG31" s="96"/>
+      <c r="CH31" s="97"/>
+      <c r="CI31" s="98"/>
+      <c r="CJ31" s="98"/>
+      <c r="CK31" s="97"/>
+      <c r="CL31" s="97"/>
+      <c r="CM31" s="97"/>
+      <c r="CN31" s="97"/>
+      <c r="CO31" s="97"/>
+      <c r="CP31" s="98"/>
+      <c r="CQ31" s="98"/>
+      <c r="CR31" s="97"/>
+      <c r="CS31" s="97"/>
+      <c r="CT31" s="97"/>
+      <c r="CU31" s="97"/>
+      <c r="CV31" s="97"/>
+      <c r="CW31" s="98"/>
+      <c r="CX31" s="98"/>
+      <c r="CY31" s="97"/>
+      <c r="CZ31" s="97"/>
+      <c r="DA31" s="97"/>
+      <c r="DB31" s="97"/>
+      <c r="DC31" s="111"/>
     </row>
     <row r="32" spans="2:107">
       <c r="B32" s="30"/>
@@ -6884,9 +6884,9 @@
       <c r="D32" s="32"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
       <c r="J32" s="66">
         <v>2</v>
       </c>
@@ -6936,63 +6936,63 @@
       <c r="AX32" s="58"/>
       <c r="AY32" s="57"/>
       <c r="AZ32" s="69"/>
-      <c r="BA32" s="131" t="s">
+      <c r="BA32" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="BB32" s="137"/>
-      <c r="BC32" s="137"/>
-      <c r="BD32" s="137"/>
-      <c r="BE32" s="137"/>
-      <c r="BF32" s="137"/>
-      <c r="BG32" s="138"/>
-      <c r="BH32" s="131"/>
-      <c r="BI32" s="143"/>
-      <c r="BJ32" s="143"/>
-      <c r="BK32" s="143"/>
-      <c r="BL32" s="143"/>
-      <c r="BM32" s="143"/>
-      <c r="BN32" s="131"/>
-      <c r="BO32" s="131"/>
-      <c r="BP32" s="129"/>
-      <c r="BQ32" s="129"/>
-      <c r="BR32" s="129"/>
-      <c r="BS32" s="129"/>
-      <c r="BT32" s="137"/>
-      <c r="BU32" s="131"/>
-      <c r="BV32" s="131"/>
-      <c r="BW32" s="129"/>
-      <c r="BX32" s="129"/>
-      <c r="BY32" s="129"/>
-      <c r="BZ32" s="129"/>
-      <c r="CA32" s="130"/>
-      <c r="CB32" s="131"/>
-      <c r="CC32" s="131"/>
-      <c r="CD32" s="130"/>
-      <c r="CE32" s="130"/>
-      <c r="CF32" s="130"/>
-      <c r="CG32" s="130"/>
-      <c r="CH32" s="130"/>
-      <c r="CI32" s="131"/>
-      <c r="CJ32" s="131"/>
-      <c r="CK32" s="130"/>
-      <c r="CL32" s="130"/>
-      <c r="CM32" s="130"/>
-      <c r="CN32" s="130"/>
-      <c r="CO32" s="130"/>
-      <c r="CP32" s="131"/>
-      <c r="CQ32" s="131"/>
-      <c r="CR32" s="130"/>
-      <c r="CS32" s="130"/>
-      <c r="CT32" s="130"/>
-      <c r="CU32" s="130"/>
-      <c r="CV32" s="130"/>
-      <c r="CW32" s="131"/>
-      <c r="CX32" s="131"/>
-      <c r="CY32" s="130"/>
-      <c r="CZ32" s="130"/>
-      <c r="DA32" s="130"/>
-      <c r="DB32" s="130"/>
-      <c r="DC32" s="144"/>
+      <c r="BB32" s="104"/>
+      <c r="BC32" s="104"/>
+      <c r="BD32" s="104"/>
+      <c r="BE32" s="104"/>
+      <c r="BF32" s="104"/>
+      <c r="BG32" s="105"/>
+      <c r="BH32" s="98"/>
+      <c r="BI32" s="110"/>
+      <c r="BJ32" s="110"/>
+      <c r="BK32" s="110"/>
+      <c r="BL32" s="110"/>
+      <c r="BM32" s="110"/>
+      <c r="BN32" s="98"/>
+      <c r="BO32" s="98"/>
+      <c r="BP32" s="96"/>
+      <c r="BQ32" s="96"/>
+      <c r="BR32" s="96"/>
+      <c r="BS32" s="96"/>
+      <c r="BT32" s="104"/>
+      <c r="BU32" s="98"/>
+      <c r="BV32" s="98"/>
+      <c r="BW32" s="96"/>
+      <c r="BX32" s="96"/>
+      <c r="BY32" s="96"/>
+      <c r="BZ32" s="96"/>
+      <c r="CA32" s="97"/>
+      <c r="CB32" s="98"/>
+      <c r="CC32" s="98"/>
+      <c r="CD32" s="97"/>
+      <c r="CE32" s="97"/>
+      <c r="CF32" s="97"/>
+      <c r="CG32" s="97"/>
+      <c r="CH32" s="97"/>
+      <c r="CI32" s="98"/>
+      <c r="CJ32" s="98"/>
+      <c r="CK32" s="97"/>
+      <c r="CL32" s="97"/>
+      <c r="CM32" s="97"/>
+      <c r="CN32" s="97"/>
+      <c r="CO32" s="97"/>
+      <c r="CP32" s="98"/>
+      <c r="CQ32" s="98"/>
+      <c r="CR32" s="97"/>
+      <c r="CS32" s="97"/>
+      <c r="CT32" s="97"/>
+      <c r="CU32" s="97"/>
+      <c r="CV32" s="97"/>
+      <c r="CW32" s="98"/>
+      <c r="CX32" s="98"/>
+      <c r="CY32" s="97"/>
+      <c r="CZ32" s="97"/>
+      <c r="DA32" s="97"/>
+      <c r="DB32" s="97"/>
+      <c r="DC32" s="111"/>
     </row>
     <row r="33" spans="2:107">
       <c r="B33" s="30"/>
@@ -7000,9 +7000,9 @@
       <c r="D33" s="32"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="71">
         <v>3</v>
       </c>
@@ -7052,63 +7052,63 @@
       <c r="AX33" s="60"/>
       <c r="AY33" s="60"/>
       <c r="AZ33" s="75"/>
-      <c r="BA33" s="134" t="s">
+      <c r="BA33" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="BB33" s="133"/>
-      <c r="BC33" s="133"/>
-      <c r="BD33" s="133"/>
-      <c r="BE33" s="133"/>
-      <c r="BF33" s="133"/>
-      <c r="BG33" s="134"/>
-      <c r="BH33" s="134"/>
-      <c r="BI33" s="145"/>
-      <c r="BJ33" s="145"/>
-      <c r="BK33" s="145"/>
-      <c r="BL33" s="145"/>
-      <c r="BM33" s="145"/>
-      <c r="BN33" s="134"/>
-      <c r="BO33" s="134"/>
-      <c r="BP33" s="133"/>
-      <c r="BQ33" s="133"/>
-      <c r="BR33" s="133"/>
-      <c r="BS33" s="133"/>
-      <c r="BT33" s="139"/>
-      <c r="BU33" s="134"/>
-      <c r="BV33" s="134"/>
-      <c r="BW33" s="132"/>
-      <c r="BX33" s="132"/>
-      <c r="BY33" s="132"/>
-      <c r="BZ33" s="132"/>
-      <c r="CA33" s="129"/>
-      <c r="CB33" s="134"/>
-      <c r="CC33" s="134"/>
-      <c r="CD33" s="129"/>
-      <c r="CE33" s="132"/>
-      <c r="CF33" s="132"/>
-      <c r="CG33" s="132"/>
-      <c r="CH33" s="133"/>
-      <c r="CI33" s="134"/>
-      <c r="CJ33" s="134"/>
-      <c r="CK33" s="133"/>
-      <c r="CL33" s="133"/>
-      <c r="CM33" s="133"/>
-      <c r="CN33" s="133"/>
-      <c r="CO33" s="133"/>
-      <c r="CP33" s="134"/>
-      <c r="CQ33" s="134"/>
-      <c r="CR33" s="133"/>
-      <c r="CS33" s="133"/>
-      <c r="CT33" s="133"/>
-      <c r="CU33" s="133"/>
-      <c r="CV33" s="133"/>
-      <c r="CW33" s="134"/>
-      <c r="CX33" s="134"/>
-      <c r="CY33" s="133"/>
-      <c r="CZ33" s="133"/>
-      <c r="DA33" s="133"/>
-      <c r="DB33" s="133"/>
-      <c r="DC33" s="148"/>
+      <c r="BB33" s="100"/>
+      <c r="BC33" s="100"/>
+      <c r="BD33" s="100"/>
+      <c r="BE33" s="100"/>
+      <c r="BF33" s="100"/>
+      <c r="BG33" s="101"/>
+      <c r="BH33" s="101"/>
+      <c r="BI33" s="112"/>
+      <c r="BJ33" s="112"/>
+      <c r="BK33" s="112"/>
+      <c r="BL33" s="112"/>
+      <c r="BM33" s="112"/>
+      <c r="BN33" s="101"/>
+      <c r="BO33" s="101"/>
+      <c r="BP33" s="100"/>
+      <c r="BQ33" s="100"/>
+      <c r="BR33" s="100"/>
+      <c r="BS33" s="100"/>
+      <c r="BT33" s="106"/>
+      <c r="BU33" s="101"/>
+      <c r="BV33" s="101"/>
+      <c r="BW33" s="99"/>
+      <c r="BX33" s="99"/>
+      <c r="BY33" s="99"/>
+      <c r="BZ33" s="99"/>
+      <c r="CA33" s="96"/>
+      <c r="CB33" s="101"/>
+      <c r="CC33" s="101"/>
+      <c r="CD33" s="96"/>
+      <c r="CE33" s="99"/>
+      <c r="CF33" s="99"/>
+      <c r="CG33" s="99"/>
+      <c r="CH33" s="100"/>
+      <c r="CI33" s="101"/>
+      <c r="CJ33" s="101"/>
+      <c r="CK33" s="100"/>
+      <c r="CL33" s="100"/>
+      <c r="CM33" s="100"/>
+      <c r="CN33" s="100"/>
+      <c r="CO33" s="100"/>
+      <c r="CP33" s="101"/>
+      <c r="CQ33" s="101"/>
+      <c r="CR33" s="100"/>
+      <c r="CS33" s="100"/>
+      <c r="CT33" s="100"/>
+      <c r="CU33" s="100"/>
+      <c r="CV33" s="100"/>
+      <c r="CW33" s="101"/>
+      <c r="CX33" s="101"/>
+      <c r="CY33" s="100"/>
+      <c r="CZ33" s="100"/>
+      <c r="DA33" s="100"/>
+      <c r="DB33" s="100"/>
+      <c r="DC33" s="115"/>
     </row>
     <row r="34" spans="2:107">
       <c r="B34" s="30"/>
@@ -7578,7 +7578,7 @@
       <c r="H38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="118"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="62">
         <v>1</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="14"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="117"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="66">
         <v>2</v>
       </c>
@@ -7806,7 +7806,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="41"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="119"/>
+      <c r="I40" s="89"/>
       <c r="J40" s="71">
         <v>3</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="H41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="118"/>
+      <c r="I41" s="88"/>
       <c r="J41" s="62">
         <v>1</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="14"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="117"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="66">
         <v>2</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="41"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="119"/>
+      <c r="I43" s="89"/>
       <c r="J43" s="71">
         <v>3</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="H44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="118"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="62">
         <v>1</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="14"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="117"/>
+      <c r="I45" s="87"/>
       <c r="J45" s="66">
         <v>2</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="41"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="119"/>
+      <c r="I46" s="89"/>
       <c r="J46" s="71">
         <v>3</v>
       </c>
@@ -8714,6 +8714,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="BP6:BT6"/>
+    <mergeCell ref="BW6:CA6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AU6:AY6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S5:AT5"/>
+    <mergeCell ref="CR6:CV6"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CD5:DB5"/>
+    <mergeCell ref="CD6:CH6"/>
+    <mergeCell ref="CY6:DB6"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="H31:H33"/>
     <mergeCell ref="I5:I7"/>
@@ -8730,46 +8770,6 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="CR6:CV6"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CD5:DB5"/>
-    <mergeCell ref="CD6:CH6"/>
-    <mergeCell ref="CY6:DB6"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AU6:AY6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S5:AT5"/>
-    <mergeCell ref="BP6:BT6"/>
-    <mergeCell ref="BW6:CA6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J5:K7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
